--- a/Documents/Implementation.xlsx
+++ b/Documents/Implementation.xlsx
@@ -8,25 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Androvil\Visual Studio 2013\Projects\HomeAutomation\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640DDA05-6B77-4A48-9C91-3311CFBFD32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1650188F-EBDE-49D6-BFCA-0DA40EAD63C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15075" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15075" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -35,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="70">
   <si>
     <t>:</t>
   </si>
@@ -218,6 +210,33 @@
   </si>
   <si>
     <t>4x0.75</t>
+  </si>
+  <si>
+    <t>Current (A)</t>
+  </si>
+  <si>
+    <t>Idle</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>LCD</t>
+  </si>
+  <si>
+    <t>Relay</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>FF</t>
   </si>
 </sst>
 </file>
@@ -417,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -485,6 +504,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1535,8 +1558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3D171E-0B30-4DB0-9874-E1EE89943674}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1748,6 +1771,9 @@
       <c r="F26" t="s">
         <v>19</v>
       </c>
+      <c r="I26" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
@@ -1767,6 +1793,12 @@
         <f>PI()*POWER(E27/2, 2)</f>
         <v>2.8352873698647882</v>
       </c>
+      <c r="H27" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -1785,6 +1817,12 @@
         <f>PI()*POWER(E28/2, 2)</f>
         <v>0.63617251235193317</v>
       </c>
+      <c r="H28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -1803,6 +1841,12 @@
         <f>PI()*POWER(E29/2, 2)</f>
         <v>0.38484510006474959</v>
       </c>
+      <c r="H29" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -1814,6 +1858,12 @@
       <c r="F30">
         <f>F27-(F29+F28)</f>
         <v>1.8142697574481055</v>
+      </c>
+      <c r="H30" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30">
+        <v>0.06</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1854,4 +1904,229 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="261" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22885FAD-77E4-4A40-B20D-74B98E80167D}">
+  <dimension ref="A1:O11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="25">
+        <v>0</v>
+      </c>
+      <c r="G1" s="26">
+        <v>1</v>
+      </c>
+      <c r="H1" s="26">
+        <v>2</v>
+      </c>
+      <c r="I1" s="27">
+        <v>3</v>
+      </c>
+      <c r="J1">
+        <v>4</v>
+      </c>
+      <c r="K1">
+        <v>5</v>
+      </c>
+      <c r="L1">
+        <v>6</v>
+      </c>
+      <c r="M1">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <f>POWER(2,A4)</f>
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:B12" si="0">POWER(2,A5)</f>
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="28">
+        <v>4</v>
+      </c>
+      <c r="B8" s="28">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28">
+        <v>1</v>
+      </c>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/Implementation.xlsx
+++ b/Documents/Implementation.xlsx
@@ -8,26 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Androvil\Visual Studio 2013\Projects\HomeAutomation\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1650188F-EBDE-49D6-BFCA-0DA40EAD63C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A19EC0D-4982-49F3-84DE-7245F96747C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15075" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15075" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="UI" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Custom Chars" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="70">
   <si>
     <t>:</t>
   </si>
@@ -128,9 +125,6 @@
     <t>Pump status</t>
   </si>
   <si>
-    <t>Water North State (Switch Position)</t>
-  </si>
-  <si>
     <t>4х1.5</t>
   </si>
   <si>
@@ -200,18 +194,6 @@
     <t>https://valtronic.bg/bg/safety-transformer-itr-25-va-12-24-v-ac-14-28-v-ac</t>
   </si>
   <si>
-    <t>3/4</t>
-  </si>
-  <si>
-    <t>1/2</t>
-  </si>
-  <si>
-    <t>5x0.75</t>
-  </si>
-  <si>
-    <t>4x0.75</t>
-  </si>
-  <si>
     <t>Current (A)</t>
   </si>
   <si>
@@ -237,13 +219,28 @@
   </si>
   <si>
     <t>FF</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>Watering State ( North Switch Position)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(South Valve State)  </t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Watering Valves</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -252,6 +249,21 @@
     <font>
       <b/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -436,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -508,11 +520,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -822,21 +891,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:Z20"/>
+  <dimension ref="A4:Z29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V29" sqref="V29"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="2" max="29" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="2.7109375" customWidth="1"/>
+    <col min="4" max="24" width="2.7109375" style="1" customWidth="1"/>
+    <col min="25" max="29" width="2.7109375" customWidth="1"/>
     <col min="16380" max="16384" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D4" s="1"/>
       <c r="E4" s="2">
         <v>0</v>
       </c>
@@ -971,7 +1041,6 @@
       <c r="O6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
         <v>8</v>
       </c>
@@ -981,10 +1050,6 @@
       <c r="S6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
       <c r="X6" s="11"/>
       <c r="Y6" s="1"/>
     </row>
@@ -1005,7 +1070,6 @@
       <c r="I7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1027,12 +1091,6 @@
       <c r="Q7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
       <c r="X7" s="11"/>
       <c r="Y7" s="1"/>
     </row>
@@ -1063,7 +1121,6 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="10" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D10" s="1"/>
       <c r="E10" s="2">
         <v>0</v>
       </c>
@@ -1182,11 +1239,6 @@
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
       <c r="N12" s="19"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
       <c r="T12" s="1" t="s">
         <v>19</v>
       </c>
@@ -1217,15 +1269,6 @@
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
       <c r="N13" s="19"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
       <c r="X13" s="11"/>
     </row>
     <row r="14" spans="4:25" x14ac:dyDescent="0.2">
@@ -1272,7 +1315,6 @@
       </c>
     </row>
     <row r="16" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D16" s="1"/>
       <c r="E16" s="2">
         <v>0</v>
       </c>
@@ -1414,14 +1456,6 @@
       <c r="K18" s="1">
         <v>2</v>
       </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
       <c r="T18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1466,8 +1500,6 @@
       <c r="J19" s="1">
         <v>3</v>
       </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
       <c r="M19" s="1" t="s">
         <v>30</v>
       </c>
@@ -1486,7 +1518,6 @@
       <c r="R19" s="1">
         <v>3</v>
       </c>
-      <c r="S19" s="1"/>
       <c r="T19" s="1" t="s">
         <v>12</v>
       </c>
@@ -1508,41 +1539,352 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="D20" s="12">
         <v>3</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G20" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" s="14">
+        <v>2</v>
+      </c>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="14">
-        <v>4</v>
-      </c>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
+      <c r="N20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="R20" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="S20" s="14">
+        <v>1</v>
+      </c>
+      <c r="T20" s="14">
+        <v>2</v>
+      </c>
+      <c r="U20" s="14">
+        <v>3</v>
+      </c>
       <c r="V20" s="14"/>
       <c r="W20" s="14"/>
       <c r="X20" s="15"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A21" s="29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>2</v>
+      </c>
+      <c r="H24" s="3">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
+        <v>6</v>
+      </c>
+      <c r="L24" s="3">
+        <v>7</v>
+      </c>
+      <c r="M24" s="3">
+        <v>8</v>
+      </c>
+      <c r="N24" s="3">
+        <v>9</v>
+      </c>
+      <c r="O24" s="3">
+        <v>10</v>
+      </c>
+      <c r="P24" s="3">
+        <v>11</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>12</v>
+      </c>
+      <c r="R24" s="3">
+        <v>13</v>
+      </c>
+      <c r="S24" s="3">
+        <v>14</v>
+      </c>
+      <c r="T24" s="3">
+        <v>15</v>
+      </c>
+      <c r="U24" s="3">
+        <v>16</v>
+      </c>
+      <c r="V24" s="3">
+        <v>17</v>
+      </c>
+      <c r="W24" s="3">
+        <v>18</v>
+      </c>
+      <c r="X24" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="7">
+        <v>3</v>
+      </c>
+      <c r="K25" s="7">
+        <v>4</v>
+      </c>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7">
+        <v>0</v>
+      </c>
+      <c r="U25" s="7">
+        <v>8</v>
+      </c>
+      <c r="V25" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="W25" s="7">
+        <v>3</v>
+      </c>
+      <c r="X25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="9">
+        <v>1</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="1">
+        <v>2</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X26" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="9">
+        <v>2</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1">
+        <v>2</v>
+      </c>
+      <c r="J27" s="1">
+        <v>3</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>2</v>
+      </c>
+      <c r="R27" s="1">
+        <v>3</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X27" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="12">
+        <v>3</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="14">
+        <v>1</v>
+      </c>
+      <c r="I28" s="14">
+        <v>2</v>
+      </c>
+      <c r="J28" s="14">
+        <v>3</v>
+      </c>
+      <c r="K28" s="14">
+        <v>4</v>
+      </c>
+      <c r="L28" s="14">
+        <v>5</v>
+      </c>
+      <c r="M28" s="14">
+        <v>6</v>
+      </c>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q28" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="R28" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="S28" s="14">
+        <v>1</v>
+      </c>
+      <c r="T28" s="14">
+        <v>2</v>
+      </c>
+      <c r="U28" s="14">
+        <v>3</v>
+      </c>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="15"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A29" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -1558,8 +1900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3D171E-0B30-4DB0-9874-E1EE89943674}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1570,15 +1912,15 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E1">
         <f>SUM(E3:E24)</f>
-        <v>1332.29</v>
+        <v>1327.52</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>2.2599999999999998</v>
@@ -1591,15 +1933,15 @@
         <v>225.99999999999997</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
         <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
       </c>
       <c r="C4">
         <v>1.3</v>
@@ -1612,15 +1954,15 @@
         <v>19.5</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5">
         <v>1.53</v>
@@ -1633,34 +1975,34 @@
         <v>15.3</v>
       </c>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6">
         <v>123</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7">
         <v>33</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8">
         <v>35.07</v>
@@ -1673,21 +2015,21 @@
         <v>350.7</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E13">
         <f>SUM(E15:E37)</f>
-        <v>284.77999999999992</v>
+        <v>280.01</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
         <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
       </c>
       <c r="C16">
         <v>1.3</v>
@@ -1700,15 +2042,15 @@
         <v>19.5</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17">
         <v>1.53</v>
@@ -1721,34 +2063,34 @@
         <v>15.3</v>
       </c>
       <c r="I17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18">
         <v>110</v>
       </c>
       <c r="I18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E19">
         <v>30</v>
       </c>
       <c r="I19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20">
         <v>35.07</v>
@@ -1761,40 +2103,25 @@
         <v>105.21000000000001</v>
       </c>
       <c r="I20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" t="s">
-        <v>19</v>
-      </c>
       <c r="I26" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27">
         <f>SUM(B28:B38)</f>
         <v>7</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="23"/>
+      <c r="H27" t="s">
         <v>57</v>
-      </c>
-      <c r="E27">
-        <v>1.9</v>
-      </c>
-      <c r="F27">
-        <f>PI()*POWER(E27/2, 2)</f>
-        <v>2.8352873698647882</v>
-      </c>
-      <c r="H27" t="s">
-        <v>62</v>
       </c>
       <c r="I27">
         <v>0.09</v>
@@ -1802,23 +2129,13 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="D28" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28">
-        <v>0.9</v>
-      </c>
-      <c r="F28">
-        <f>PI()*POWER(E28/2, 2)</f>
-        <v>0.63617251235193317</v>
-      </c>
       <c r="H28" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I28">
         <v>0.03</v>
@@ -1826,23 +2143,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
-      <c r="D29" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29">
-        <v>0.7</v>
-      </c>
-      <c r="F29">
-        <f>PI()*POWER(E29/2, 2)</f>
-        <v>0.38484510006474959</v>
-      </c>
       <c r="H29" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I29">
         <v>0.04</v>
@@ -1850,17 +2157,13 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
-      <c r="F30">
-        <f>F27-(F29+F28)</f>
-        <v>1.8142697574481055</v>
-      </c>
       <c r="H30" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I30">
         <v>0.06</v>
@@ -1868,25 +2171,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
-      <c r="D31" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31">
-        <v>1.27</v>
-      </c>
-      <c r="F31">
-        <f>PI()*POWER(E31/2, 2)</f>
-        <v>1.2667686977437442</v>
-      </c>
+      <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1894,7 +2188,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1907,10 +2201,3261 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DEA7A6-42AD-400D-BAD9-17E18F70C345}">
+  <dimension ref="A1:AF65"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="31"/>
+    <col min="2" max="2" width="9.140625" style="36"/>
+    <col min="3" max="3" width="14" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="2.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.85546875" style="35" customWidth="1"/>
+    <col min="7" max="11" width="2.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="33"/>
+    <col min="13" max="15" width="9.140625" style="30"/>
+    <col min="16" max="17" width="9.140625" style="31"/>
+    <col min="18" max="18" width="9.140625" style="36"/>
+    <col min="19" max="19" width="14" style="36" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="1.5703125" style="35" customWidth="1"/>
+    <col min="23" max="27" width="2.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" style="33"/>
+    <col min="29" max="29" width="9.140625" style="30"/>
+    <col min="30" max="30" width="32.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.5703125" style="38" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="34">
+        <v>7</v>
+      </c>
+      <c r="E1" s="34">
+        <v>6</v>
+      </c>
+      <c r="F1" s="34">
+        <v>5</v>
+      </c>
+      <c r="G1" s="34">
+        <v>4</v>
+      </c>
+      <c r="H1" s="34">
+        <v>3</v>
+      </c>
+      <c r="I1" s="34">
+        <v>2</v>
+      </c>
+      <c r="J1" s="34">
+        <v>1</v>
+      </c>
+      <c r="K1" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="39">
+        <v>7</v>
+      </c>
+      <c r="U1" s="39">
+        <v>6</v>
+      </c>
+      <c r="V1" s="39">
+        <v>5</v>
+      </c>
+      <c r="W1" s="34">
+        <v>4</v>
+      </c>
+      <c r="X1" s="34">
+        <v>3</v>
+      </c>
+      <c r="Y1" s="34">
+        <v>2</v>
+      </c>
+      <c r="Z1" s="34">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40">
+        <v>0</v>
+      </c>
+      <c r="B2" s="36">
+        <v>0</v>
+      </c>
+      <c r="C2" s="36" t="str">
+        <f>TEXT(DEC2BIN(B2), "00000000")</f>
+        <v>00000000</v>
+      </c>
+      <c r="L2" s="33" t="str">
+        <f>_xlfn.CONCAT(TEXT(G2, "0"),TEXT(H2, "0"),TEXT(I2, "0"),TEXT(J2, "0"),TEXT(K2, "0"))</f>
+        <v>00000</v>
+      </c>
+      <c r="M2" s="30">
+        <f>BIN2DEC(L2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="40">
+        <v>0</v>
+      </c>
+      <c r="R2" s="36">
+        <v>0</v>
+      </c>
+      <c r="S2" s="36" t="str">
+        <f>TEXT(DEC2BIN(R2), "00000000")</f>
+        <v>00000000</v>
+      </c>
+      <c r="Y2" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="33" t="str">
+        <f>_xlfn.CONCAT(TEXT(W2, "0"),TEXT(X2, "0"),TEXT(Y2, "0"),TEXT(Z2, "0"),TEXT(AA2, "0"))</f>
+        <v>00100</v>
+      </c>
+      <c r="AC2" s="30">
+        <f>BIN2DEC(AB2)</f>
+        <v>4</v>
+      </c>
+      <c r="AD2" s="31" t="str">
+        <f>_xlfn.CONCAT(TEXT(AC2,"00"),",",TEXT(AC3,"00"),",",TEXT(AC4,"00"),",",TEXT(AC5,"00"),",",TEXT(AC6,"00"),",",TEXT(AC7,"00"),",",TEXT(AC8,"00"),",",TEXT(AC9,"00"))</f>
+        <v>04,12,04,20,04,04,14,31</v>
+      </c>
+      <c r="AE2" s="38">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="31" t="str">
+        <f>_xlfn.CONCAT(TEXT(AC2,"00"),",",TEXT(AC3,"00"),",",TEXT(AC4,"00"),",",TEXT(AC5,"00"),",",TEXT(AC6,"00"),",",TEXT(AC7,"00"),",",TEXT(AC8,"00"),",",TEXT(AC9,"00"))</f>
+        <v>04,12,04,20,04,04,14,31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="41"/>
+      <c r="B3" s="36">
+        <v>1</v>
+      </c>
+      <c r="C3" s="36" t="str">
+        <f t="shared" ref="C3:C65" si="0">TEXT(DEC2BIN(B3), "00000000")</f>
+        <v>00000001</v>
+      </c>
+      <c r="I3" s="35">
+        <v>1</v>
+      </c>
+      <c r="L3" s="33" t="str">
+        <f t="shared" ref="L3:L9" si="1">_xlfn.CONCAT(TEXT(G3, "0"),TEXT(H3, "0"),TEXT(I3, "0"),TEXT(J3, "0"),TEXT(K3, "0"))</f>
+        <v>00100</v>
+      </c>
+      <c r="M3" s="30">
+        <f t="shared" ref="M3:M65" si="2">BIN2DEC(L3)</f>
+        <v>4</v>
+      </c>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="36">
+        <v>1</v>
+      </c>
+      <c r="S3" s="36" t="str">
+        <f t="shared" ref="S3:S65" si="3">TEXT(DEC2BIN(R3), "00000000")</f>
+        <v>00000001</v>
+      </c>
+      <c r="X3" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="33" t="str">
+        <f t="shared" ref="AB3:AB65" si="4">_xlfn.CONCAT(TEXT(W3, "0"),TEXT(X3, "0"),TEXT(Y3, "0"),TEXT(Z3, "0"),TEXT(AA3, "0"))</f>
+        <v>01100</v>
+      </c>
+      <c r="AC3" s="30">
+        <f t="shared" ref="AC3:AC65" si="5">BIN2DEC(AB3)</f>
+        <v>12</v>
+      </c>
+      <c r="AE3" s="38">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="31" t="str">
+        <f>_xlfn.CONCAT(TEXT(AC10,"00"),",",TEXT(AC11,"00"),",",TEXT(AC12,"00"),",",TEXT(AC13,"00"),",",TEXT(AC14,"00"),",",TEXT(AC15,"00"),",",TEXT(AC16,"00"),",",TEXT(AC17,"00"))</f>
+        <v>14,17,01,02,04,08,31,31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="41"/>
+      <c r="B4" s="36">
+        <v>2</v>
+      </c>
+      <c r="C4" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000010</v>
+      </c>
+      <c r="H4" s="35">
+        <v>1</v>
+      </c>
+      <c r="I4" s="35">
+        <v>1</v>
+      </c>
+      <c r="L4" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>01100</v>
+      </c>
+      <c r="M4" s="30">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="36">
+        <v>2</v>
+      </c>
+      <c r="S4" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000010</v>
+      </c>
+      <c r="Y4" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>00100</v>
+      </c>
+      <c r="AC4" s="30">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AE4" s="38">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="31" t="str">
+        <f>_xlfn.CONCAT(TEXT(AC18,"00"),",",TEXT(AC19,"00"),",",TEXT(AC20,"00"),",",TEXT(AC21,"00"),",",TEXT(AC22,"00"),",",TEXT(AC23,"00"),",",TEXT(AC24,"00"),",",TEXT(AC25,"00"))</f>
+        <v>31,02,20,02,01,17,14,31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="41"/>
+      <c r="B5" s="36">
+        <v>3</v>
+      </c>
+      <c r="C5" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000011</v>
+      </c>
+      <c r="I5" s="35">
+        <v>1</v>
+      </c>
+      <c r="L5" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>00100</v>
+      </c>
+      <c r="M5" s="30">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="36">
+        <v>3</v>
+      </c>
+      <c r="S5" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000011</v>
+      </c>
+      <c r="W5" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>10100</v>
+      </c>
+      <c r="AC5" s="30">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="AE5" s="38">
+        <v>3</v>
+      </c>
+      <c r="AF5" s="31" t="str">
+        <f>_xlfn.CONCAT(TEXT(AC26,"00"),",",TEXT(AC27,"00"),",",TEXT(AC28,"00"),",",TEXT(AC29,"00"),",",TEXT(AC30,"00"),",",TEXT(AC31,"00"),",",TEXT(AC32,"00"),",",TEXT(AC33,"00"))</f>
+        <v>18,06,10,18,31,02,02,31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="41"/>
+      <c r="B6" s="36">
+        <v>4</v>
+      </c>
+      <c r="C6" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000100</v>
+      </c>
+      <c r="I6" s="35">
+        <v>1</v>
+      </c>
+      <c r="L6" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>00100</v>
+      </c>
+      <c r="M6" s="30">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="36">
+        <v>4</v>
+      </c>
+      <c r="S6" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000100</v>
+      </c>
+      <c r="Y6" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>00100</v>
+      </c>
+      <c r="AC6" s="30">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AE6" s="38">
+        <v>4</v>
+      </c>
+      <c r="AF6" s="31" t="str">
+        <f>_xlfn.CONCAT(TEXT(AC34,"00"),",",TEXT(AC35,"00"),",",TEXT(AC36,"00"),",",TEXT(AC37,"00"),",",TEXT(AC38,"00"),",",TEXT(AC39,"00"),",",TEXT(AC40,"00"),",",TEXT(AC41,"00"))</f>
+        <v>31,16,30,01,05,17,14,31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="41"/>
+      <c r="B7" s="36">
+        <v>5</v>
+      </c>
+      <c r="C7" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000101</v>
+      </c>
+      <c r="I7" s="35">
+        <v>1</v>
+      </c>
+      <c r="L7" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>00100</v>
+      </c>
+      <c r="M7" s="30">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="36">
+        <v>5</v>
+      </c>
+      <c r="S7" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000101</v>
+      </c>
+      <c r="Y7" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>00100</v>
+      </c>
+      <c r="AC7" s="30">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AE7" s="38">
+        <v>5</v>
+      </c>
+      <c r="AF7" s="31" t="str">
+        <f>_xlfn.CONCAT(TEXT(AC42,"00"),",",TEXT(AC43,"00"),",",TEXT(AC44,"00"),",",TEXT(AC45,"00"),",",TEXT(AC46,"00"),",",TEXT(AC47,"00"),",",TEXT(AC48,"00"),",",TEXT(AC49,"00"))</f>
+        <v>06,08,17,30,17,17,14,31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="41"/>
+      <c r="B8" s="36">
+        <v>6</v>
+      </c>
+      <c r="C8" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000110</v>
+      </c>
+      <c r="H8" s="35">
+        <v>1</v>
+      </c>
+      <c r="I8" s="35">
+        <v>1</v>
+      </c>
+      <c r="J8" s="35">
+        <v>1</v>
+      </c>
+      <c r="L8" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>01110</v>
+      </c>
+      <c r="M8" s="30">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="36">
+        <v>6</v>
+      </c>
+      <c r="S8" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000110</v>
+      </c>
+      <c r="X8" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>01110</v>
+      </c>
+      <c r="AC8" s="30">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="AE8" s="38">
+        <v>6</v>
+      </c>
+      <c r="AF8" s="31" t="str">
+        <f>_xlfn.CONCAT(TEXT(AC50,"00"),",",TEXT(AC51,"00"),",",TEXT(AC52,"00"),",",TEXT(AC53,"00"),",",TEXT(AC54,"00"),",",TEXT(AC55,"00"),",",TEXT(AC56,"00"),",",TEXT(AC57,"00"))</f>
+        <v>31,17,01,18,04,04,04,31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
+      <c r="B9" s="37">
+        <v>7</v>
+      </c>
+      <c r="C9" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>00000111</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>00000</v>
+      </c>
+      <c r="M9" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="37">
+        <v>7</v>
+      </c>
+      <c r="S9" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>00000111</v>
+      </c>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34">
+        <v>1</v>
+      </c>
+      <c r="X9" s="34">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="34">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="34">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>11111</v>
+      </c>
+      <c r="AC9" s="30">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="AE9" s="38">
+        <v>7</v>
+      </c>
+      <c r="AF9" s="31" t="str">
+        <f>_xlfn.CONCAT(TEXT(AC58,"00"),",",TEXT(AC59,"00"),",",TEXT(AC60,"00"),",",TEXT(AC61,"00"),",",TEXT(AC62,"00"),",",TEXT(AC63,"00"),",",TEXT(AC64,"00"),",",TEXT(AC65,"00"))</f>
+        <v>14,17,21,14,21,17,14,31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="40">
+        <v>1</v>
+      </c>
+      <c r="B10" s="36">
+        <v>0</v>
+      </c>
+      <c r="C10" s="36" t="str">
+        <f>TEXT(DEC2BIN(B10), "00000000")</f>
+        <v>00000000</v>
+      </c>
+      <c r="L10" s="33" t="str">
+        <f t="shared" ref="L10:L25" si="6">_xlfn.CONCAT(TEXT(G10, "0"),TEXT(H10, "0"),TEXT(I10, "0"),TEXT(J10, "0"),TEXT(K10, "0"))</f>
+        <v>00000</v>
+      </c>
+      <c r="M10" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="40">
+        <v>1</v>
+      </c>
+      <c r="R10" s="36">
+        <v>0</v>
+      </c>
+      <c r="S10" s="36" t="str">
+        <f>TEXT(DEC2BIN(R10), "00000000")</f>
+        <v>00000000</v>
+      </c>
+      <c r="X10" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="33" t="str">
+        <f t="shared" ref="AB10:AB16" si="7">_xlfn.CONCAT(TEXT(W10, "0"),TEXT(X10, "0"),TEXT(Y10, "0"),TEXT(Z10, "0"),TEXT(AA10, "0"))</f>
+        <v>01110</v>
+      </c>
+      <c r="AC10" s="30">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="AD10" s="31" t="str">
+        <f>_xlfn.CONCAT(TEXT(AC10,"00"),",",TEXT(AC11,"00"),",",TEXT(AC12,"00"),",",TEXT(AC13,"00"),",",TEXT(AC14,"00"),",",TEXT(AC15,"00"),",",TEXT(AC16,"00"),",",TEXT(AC17,"00"))</f>
+        <v>14,17,01,02,04,08,31,31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="41"/>
+      <c r="B11" s="36">
+        <v>1</v>
+      </c>
+      <c r="C11" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000001</v>
+      </c>
+      <c r="H11" s="35">
+        <v>1</v>
+      </c>
+      <c r="I11" s="35">
+        <v>1</v>
+      </c>
+      <c r="L11" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>01100</v>
+      </c>
+      <c r="M11" s="30">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="36">
+        <v>1</v>
+      </c>
+      <c r="S11" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000001</v>
+      </c>
+      <c r="W11" s="35">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="33" t="str">
+        <f t="shared" si="7"/>
+        <v>10001</v>
+      </c>
+      <c r="AC11" s="30">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="41"/>
+      <c r="B12" s="36">
+        <v>2</v>
+      </c>
+      <c r="C12" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000010</v>
+      </c>
+      <c r="G12" s="35">
+        <v>1</v>
+      </c>
+      <c r="J12" s="35">
+        <v>1</v>
+      </c>
+      <c r="L12" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>10010</v>
+      </c>
+      <c r="M12" s="30">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="36">
+        <v>2</v>
+      </c>
+      <c r="S12" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000010</v>
+      </c>
+      <c r="AA12" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="33" t="str">
+        <f t="shared" si="7"/>
+        <v>00001</v>
+      </c>
+      <c r="AC12" s="30">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="41"/>
+      <c r="B13" s="36">
+        <v>3</v>
+      </c>
+      <c r="C13" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000011</v>
+      </c>
+      <c r="J13" s="35">
+        <v>1</v>
+      </c>
+      <c r="L13" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>00010</v>
+      </c>
+      <c r="M13" s="30">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="36">
+        <v>3</v>
+      </c>
+      <c r="S13" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000011</v>
+      </c>
+      <c r="Z13" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="33" t="str">
+        <f t="shared" si="7"/>
+        <v>00010</v>
+      </c>
+      <c r="AC13" s="30">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="41"/>
+      <c r="B14" s="36">
+        <v>4</v>
+      </c>
+      <c r="C14" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000100</v>
+      </c>
+      <c r="I14" s="35">
+        <v>1</v>
+      </c>
+      <c r="L14" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>00100</v>
+      </c>
+      <c r="M14" s="30">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="36">
+        <v>4</v>
+      </c>
+      <c r="S14" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000100</v>
+      </c>
+      <c r="Y14" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="33" t="str">
+        <f t="shared" si="7"/>
+        <v>00100</v>
+      </c>
+      <c r="AC14" s="30">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="41"/>
+      <c r="B15" s="36">
+        <v>5</v>
+      </c>
+      <c r="C15" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000101</v>
+      </c>
+      <c r="H15" s="35">
+        <v>1</v>
+      </c>
+      <c r="L15" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>01000</v>
+      </c>
+      <c r="M15" s="30">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="36">
+        <v>5</v>
+      </c>
+      <c r="S15" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000101</v>
+      </c>
+      <c r="X15" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="33" t="str">
+        <f t="shared" si="7"/>
+        <v>01000</v>
+      </c>
+      <c r="AC15" s="30">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="41"/>
+      <c r="B16" s="36">
+        <v>6</v>
+      </c>
+      <c r="C16" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000110</v>
+      </c>
+      <c r="G16" s="35">
+        <v>1</v>
+      </c>
+      <c r="H16" s="35">
+        <v>1</v>
+      </c>
+      <c r="I16" s="35">
+        <v>1</v>
+      </c>
+      <c r="J16" s="35">
+        <v>1</v>
+      </c>
+      <c r="L16" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>11110</v>
+      </c>
+      <c r="M16" s="30">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="36">
+        <v>6</v>
+      </c>
+      <c r="S16" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000110</v>
+      </c>
+      <c r="W16" s="35">
+        <v>1</v>
+      </c>
+      <c r="X16" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="35">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="33" t="str">
+        <f t="shared" si="7"/>
+        <v>11111</v>
+      </c>
+      <c r="AC16" s="30">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
+      <c r="B17" s="37">
+        <v>7</v>
+      </c>
+      <c r="C17" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>00000111</v>
+      </c>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>00000</v>
+      </c>
+      <c r="M17" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="37">
+        <v>7</v>
+      </c>
+      <c r="S17" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>00000111</v>
+      </c>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34">
+        <v>1</v>
+      </c>
+      <c r="X17" s="34">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="34">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="34">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>11111</v>
+      </c>
+      <c r="AC17" s="30">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="40">
+        <v>2</v>
+      </c>
+      <c r="B18" s="36">
+        <v>0</v>
+      </c>
+      <c r="C18" s="36" t="str">
+        <f>TEXT(DEC2BIN(B18), "00000000")</f>
+        <v>00000000</v>
+      </c>
+      <c r="L18" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>00000</v>
+      </c>
+      <c r="M18" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="40">
+        <v>2</v>
+      </c>
+      <c r="R18" s="36">
+        <v>0</v>
+      </c>
+      <c r="S18" s="36" t="str">
+        <f>TEXT(DEC2BIN(R18), "00000000")</f>
+        <v>00000000</v>
+      </c>
+      <c r="W18" s="35">
+        <v>1</v>
+      </c>
+      <c r="X18" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="35">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>11111</v>
+      </c>
+      <c r="AC18" s="30">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="AD18" s="31" t="str">
+        <f>_xlfn.CONCAT(TEXT(AC18,"00"),",",TEXT(AC19,"00"),",",TEXT(AC20,"00"),",",TEXT(AC21,"00"),",",TEXT(AC22,"00"),",",TEXT(AC23,"00"),",",TEXT(AC24,"00"),",",TEXT(AC25,"00"))</f>
+        <v>31,02,20,02,01,17,14,31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
+      <c r="B19" s="36">
+        <v>1</v>
+      </c>
+      <c r="C19" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000001</v>
+      </c>
+      <c r="G19" s="35">
+        <v>1</v>
+      </c>
+      <c r="H19" s="35">
+        <v>1</v>
+      </c>
+      <c r="I19" s="35">
+        <v>1</v>
+      </c>
+      <c r="J19" s="35">
+        <v>1</v>
+      </c>
+      <c r="L19" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>11110</v>
+      </c>
+      <c r="M19" s="30">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="36">
+        <v>1</v>
+      </c>
+      <c r="S19" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000001</v>
+      </c>
+      <c r="Z19" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>00010</v>
+      </c>
+      <c r="AC19" s="30">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="41"/>
+      <c r="B20" s="36">
+        <v>2</v>
+      </c>
+      <c r="C20" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000010</v>
+      </c>
+      <c r="I20" s="35">
+        <v>1</v>
+      </c>
+      <c r="L20" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>00100</v>
+      </c>
+      <c r="M20" s="30">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="36">
+        <v>2</v>
+      </c>
+      <c r="S20" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000010</v>
+      </c>
+      <c r="W20" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>10100</v>
+      </c>
+      <c r="AC20" s="30">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
+      <c r="B21" s="36">
+        <v>3</v>
+      </c>
+      <c r="C21" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000011</v>
+      </c>
+      <c r="H21" s="35">
+        <v>1</v>
+      </c>
+      <c r="L21" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>01000</v>
+      </c>
+      <c r="M21" s="30">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="36">
+        <v>3</v>
+      </c>
+      <c r="S21" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000011</v>
+      </c>
+      <c r="Z21" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>00010</v>
+      </c>
+      <c r="AC21" s="30">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="41"/>
+      <c r="B22" s="36">
+        <v>4</v>
+      </c>
+      <c r="C22" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000100</v>
+      </c>
+      <c r="I22" s="35">
+        <v>1</v>
+      </c>
+      <c r="L22" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>00100</v>
+      </c>
+      <c r="M22" s="30">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="36">
+        <v>4</v>
+      </c>
+      <c r="S22" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000100</v>
+      </c>
+      <c r="AA22" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>00001</v>
+      </c>
+      <c r="AC22" s="30">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="41"/>
+      <c r="B23" s="36">
+        <v>5</v>
+      </c>
+      <c r="C23" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000101</v>
+      </c>
+      <c r="G23" s="35">
+        <v>1</v>
+      </c>
+      <c r="J23" s="35">
+        <v>1</v>
+      </c>
+      <c r="L23" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>10010</v>
+      </c>
+      <c r="M23" s="30">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="36">
+        <v>5</v>
+      </c>
+      <c r="S23" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000101</v>
+      </c>
+      <c r="W23" s="35">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>10001</v>
+      </c>
+      <c r="AC23" s="30">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="41"/>
+      <c r="B24" s="36">
+        <v>6</v>
+      </c>
+      <c r="C24" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000110</v>
+      </c>
+      <c r="H24" s="35">
+        <v>1</v>
+      </c>
+      <c r="I24" s="35">
+        <v>1</v>
+      </c>
+      <c r="L24" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>01100</v>
+      </c>
+      <c r="M24" s="30">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="36">
+        <v>6</v>
+      </c>
+      <c r="S24" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000110</v>
+      </c>
+      <c r="X24" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>01110</v>
+      </c>
+      <c r="AC24" s="30">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="42"/>
+      <c r="B25" s="37">
+        <v>7</v>
+      </c>
+      <c r="C25" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>00000111</v>
+      </c>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="33" t="str">
+        <f t="shared" si="6"/>
+        <v>00000</v>
+      </c>
+      <c r="M25" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="37">
+        <v>7</v>
+      </c>
+      <c r="S25" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>00000111</v>
+      </c>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="34">
+        <v>1</v>
+      </c>
+      <c r="X25" s="34">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="34">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="34">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>11111</v>
+      </c>
+      <c r="AC25" s="30">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="40">
+        <v>3</v>
+      </c>
+      <c r="B26" s="36">
+        <v>0</v>
+      </c>
+      <c r="C26" s="36" t="str">
+        <f>TEXT(DEC2BIN(B26), "00000000")</f>
+        <v>00000000</v>
+      </c>
+      <c r="L26" s="33" t="str">
+        <f t="shared" ref="L26:L65" si="8">_xlfn.CONCAT(TEXT(G26, "0"),TEXT(H26, "0"),TEXT(I26, "0"),TEXT(J26, "0"),TEXT(K26, "0"))</f>
+        <v>00000</v>
+      </c>
+      <c r="M26" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="40">
+        <v>3</v>
+      </c>
+      <c r="R26" s="36">
+        <v>0</v>
+      </c>
+      <c r="S26" s="36" t="str">
+        <f>TEXT(DEC2BIN(R26), "00000000")</f>
+        <v>00000000</v>
+      </c>
+      <c r="W26" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>10010</v>
+      </c>
+      <c r="AC26" s="30">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="AD26" s="31" t="str">
+        <f>_xlfn.CONCAT(TEXT(AC26,"00"),",",TEXT(AC27,"00"),",",TEXT(AC28,"00"),",",TEXT(AC29,"00"),",",TEXT(AC30,"00"),",",TEXT(AC31,"00"),",",TEXT(AC32,"00"),",",TEXT(AC33,"00"))</f>
+        <v>18,06,10,18,31,02,02,31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="41"/>
+      <c r="B27" s="36">
+        <v>1</v>
+      </c>
+      <c r="C27" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000001</v>
+      </c>
+      <c r="I27" s="35">
+        <v>1</v>
+      </c>
+      <c r="L27" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>00100</v>
+      </c>
+      <c r="M27" s="30">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="36">
+        <v>1</v>
+      </c>
+      <c r="S27" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000001</v>
+      </c>
+      <c r="Y27" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>00110</v>
+      </c>
+      <c r="AC27" s="30">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="41"/>
+      <c r="B28" s="36">
+        <v>2</v>
+      </c>
+      <c r="C28" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000010</v>
+      </c>
+      <c r="H28" s="35">
+        <v>1</v>
+      </c>
+      <c r="I28" s="35">
+        <v>1</v>
+      </c>
+      <c r="L28" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>01100</v>
+      </c>
+      <c r="M28" s="30">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="36">
+        <v>2</v>
+      </c>
+      <c r="S28" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000010</v>
+      </c>
+      <c r="X28" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>01010</v>
+      </c>
+      <c r="AC28" s="30">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="41"/>
+      <c r="B29" s="36">
+        <v>3</v>
+      </c>
+      <c r="C29" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000011</v>
+      </c>
+      <c r="G29" s="35">
+        <v>1</v>
+      </c>
+      <c r="I29" s="35">
+        <v>1</v>
+      </c>
+      <c r="L29" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>10100</v>
+      </c>
+      <c r="M29" s="30">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="36">
+        <v>3</v>
+      </c>
+      <c r="S29" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000011</v>
+      </c>
+      <c r="W29" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>10010</v>
+      </c>
+      <c r="AC29" s="30">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="41"/>
+      <c r="B30" s="36">
+        <v>4</v>
+      </c>
+      <c r="C30" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000100</v>
+      </c>
+      <c r="G30" s="35">
+        <v>1</v>
+      </c>
+      <c r="H30" s="35">
+        <v>1</v>
+      </c>
+      <c r="I30" s="35">
+        <v>1</v>
+      </c>
+      <c r="J30" s="35">
+        <v>1</v>
+      </c>
+      <c r="L30" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>11110</v>
+      </c>
+      <c r="M30" s="30">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="36">
+        <v>4</v>
+      </c>
+      <c r="S30" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000100</v>
+      </c>
+      <c r="W30" s="35">
+        <v>1</v>
+      </c>
+      <c r="X30" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="35">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>11111</v>
+      </c>
+      <c r="AC30" s="30">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="41"/>
+      <c r="B31" s="36">
+        <v>5</v>
+      </c>
+      <c r="C31" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000101</v>
+      </c>
+      <c r="I31" s="35">
+        <v>1</v>
+      </c>
+      <c r="L31" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>00100</v>
+      </c>
+      <c r="M31" s="30">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="36">
+        <v>5</v>
+      </c>
+      <c r="S31" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000101</v>
+      </c>
+      <c r="Z31" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>00010</v>
+      </c>
+      <c r="AC31" s="30">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="41"/>
+      <c r="B32" s="36">
+        <v>6</v>
+      </c>
+      <c r="C32" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000110</v>
+      </c>
+      <c r="I32" s="35">
+        <v>1</v>
+      </c>
+      <c r="L32" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>00100</v>
+      </c>
+      <c r="M32" s="30">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="36">
+        <v>6</v>
+      </c>
+      <c r="S32" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000110</v>
+      </c>
+      <c r="Z32" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>00010</v>
+      </c>
+      <c r="AC32" s="30">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="42"/>
+      <c r="B33" s="37">
+        <v>7</v>
+      </c>
+      <c r="C33" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>00000111</v>
+      </c>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>00000</v>
+      </c>
+      <c r="M33" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="37">
+        <v>7</v>
+      </c>
+      <c r="S33" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>00000111</v>
+      </c>
+      <c r="T33" s="34"/>
+      <c r="U33" s="34"/>
+      <c r="V33" s="34"/>
+      <c r="W33" s="34">
+        <v>1</v>
+      </c>
+      <c r="X33" s="34">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="34">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="34">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>11111</v>
+      </c>
+      <c r="AC33" s="30">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="40">
+        <v>4</v>
+      </c>
+      <c r="B34" s="36">
+        <v>0</v>
+      </c>
+      <c r="C34" s="36" t="str">
+        <f>TEXT(DEC2BIN(B34), "00000000")</f>
+        <v>00000000</v>
+      </c>
+      <c r="L34" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>00000</v>
+      </c>
+      <c r="M34" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="40">
+        <v>4</v>
+      </c>
+      <c r="R34" s="36">
+        <v>0</v>
+      </c>
+      <c r="S34" s="36" t="str">
+        <f>TEXT(DEC2BIN(R34), "00000000")</f>
+        <v>00000000</v>
+      </c>
+      <c r="W34" s="35">
+        <v>1</v>
+      </c>
+      <c r="X34" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="35">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>11111</v>
+      </c>
+      <c r="AC34" s="30">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="AD34" s="31" t="str">
+        <f>_xlfn.CONCAT(TEXT(AC34,"00"),",",TEXT(AC35,"00"),",",TEXT(AC36,"00"),",",TEXT(AC37,"00"),",",TEXT(AC38,"00"),",",TEXT(AC39,"00"),",",TEXT(AC40,"00"),",",TEXT(AC41,"00"))</f>
+        <v>31,16,30,01,05,17,14,31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="41"/>
+      <c r="B35" s="36">
+        <v>1</v>
+      </c>
+      <c r="C35" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000001</v>
+      </c>
+      <c r="G35" s="35">
+        <v>1</v>
+      </c>
+      <c r="H35" s="35">
+        <v>1</v>
+      </c>
+      <c r="I35" s="35">
+        <v>1</v>
+      </c>
+      <c r="J35" s="35">
+        <v>1</v>
+      </c>
+      <c r="L35" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>11110</v>
+      </c>
+      <c r="M35" s="30">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="36">
+        <v>1</v>
+      </c>
+      <c r="S35" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000001</v>
+      </c>
+      <c r="W35" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="AC35" s="30">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="41"/>
+      <c r="B36" s="36">
+        <v>2</v>
+      </c>
+      <c r="C36" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000010</v>
+      </c>
+      <c r="G36" s="35">
+        <v>1</v>
+      </c>
+      <c r="L36" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>10000</v>
+      </c>
+      <c r="M36" s="30">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="36">
+        <v>2</v>
+      </c>
+      <c r="S36" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000010</v>
+      </c>
+      <c r="W36" s="35">
+        <v>1</v>
+      </c>
+      <c r="X36" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>11110</v>
+      </c>
+      <c r="AC36" s="30">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="41"/>
+      <c r="B37" s="36">
+        <v>3</v>
+      </c>
+      <c r="C37" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000011</v>
+      </c>
+      <c r="G37" s="35">
+        <v>1</v>
+      </c>
+      <c r="H37" s="35">
+        <v>1</v>
+      </c>
+      <c r="I37" s="35">
+        <v>1</v>
+      </c>
+      <c r="L37" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>11100</v>
+      </c>
+      <c r="M37" s="30">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="36">
+        <v>3</v>
+      </c>
+      <c r="S37" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000011</v>
+      </c>
+      <c r="AA37" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>00001</v>
+      </c>
+      <c r="AC37" s="30">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="41"/>
+      <c r="B38" s="36">
+        <v>4</v>
+      </c>
+      <c r="C38" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000100</v>
+      </c>
+      <c r="J38" s="35">
+        <v>1</v>
+      </c>
+      <c r="L38" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>00010</v>
+      </c>
+      <c r="M38" s="30">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="36">
+        <v>4</v>
+      </c>
+      <c r="S38" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000100</v>
+      </c>
+      <c r="Y38" s="35">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB38" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>00101</v>
+      </c>
+      <c r="AC38" s="30">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="41"/>
+      <c r="B39" s="36">
+        <v>5</v>
+      </c>
+      <c r="C39" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000101</v>
+      </c>
+      <c r="G39" s="35">
+        <v>1</v>
+      </c>
+      <c r="J39" s="35">
+        <v>1</v>
+      </c>
+      <c r="L39" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>10010</v>
+      </c>
+      <c r="M39" s="30">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="36">
+        <v>5</v>
+      </c>
+      <c r="S39" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000101</v>
+      </c>
+      <c r="W39" s="35">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>10001</v>
+      </c>
+      <c r="AC39" s="30">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="41"/>
+      <c r="B40" s="36">
+        <v>6</v>
+      </c>
+      <c r="C40" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000110</v>
+      </c>
+      <c r="H40" s="35">
+        <v>1</v>
+      </c>
+      <c r="I40" s="35">
+        <v>1</v>
+      </c>
+      <c r="L40" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>01100</v>
+      </c>
+      <c r="M40" s="30">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="36">
+        <v>6</v>
+      </c>
+      <c r="S40" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000110</v>
+      </c>
+      <c r="X40" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>01110</v>
+      </c>
+      <c r="AC40" s="30">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="42"/>
+      <c r="B41" s="37">
+        <v>7</v>
+      </c>
+      <c r="C41" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>00000111</v>
+      </c>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>00000</v>
+      </c>
+      <c r="M41" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="37">
+        <v>7</v>
+      </c>
+      <c r="S41" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>00000111</v>
+      </c>
+      <c r="T41" s="34"/>
+      <c r="U41" s="34"/>
+      <c r="V41" s="34"/>
+      <c r="W41" s="34">
+        <v>1</v>
+      </c>
+      <c r="X41" s="34">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="34">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="34">
+        <v>1</v>
+      </c>
+      <c r="AB41" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>11111</v>
+      </c>
+      <c r="AC41" s="30">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="40">
+        <v>5</v>
+      </c>
+      <c r="B42" s="36">
+        <v>0</v>
+      </c>
+      <c r="C42" s="36" t="str">
+        <f>TEXT(DEC2BIN(B42), "00000000")</f>
+        <v>00000000</v>
+      </c>
+      <c r="L42" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>00000</v>
+      </c>
+      <c r="M42" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="40">
+        <v>5</v>
+      </c>
+      <c r="R42" s="36">
+        <v>0</v>
+      </c>
+      <c r="S42" s="36" t="str">
+        <f>TEXT(DEC2BIN(R42), "00000000")</f>
+        <v>00000000</v>
+      </c>
+      <c r="Y42" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB42" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>00110</v>
+      </c>
+      <c r="AC42" s="30">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="AD42" s="31" t="str">
+        <f>_xlfn.CONCAT(TEXT(AC42,"00"),",",TEXT(AC43,"00"),",",TEXT(AC44,"00"),",",TEXT(AC45,"00"),",",TEXT(AC46,"00"),",",TEXT(AC47,"00"),",",TEXT(AC48,"00"),",",TEXT(AC49,"00"))</f>
+        <v>06,08,17,30,17,17,14,31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="41"/>
+      <c r="B43" s="36">
+        <v>1</v>
+      </c>
+      <c r="C43" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000001</v>
+      </c>
+      <c r="H43" s="35">
+        <v>1</v>
+      </c>
+      <c r="I43" s="35">
+        <v>1</v>
+      </c>
+      <c r="L43" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>01100</v>
+      </c>
+      <c r="M43" s="30">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="36">
+        <v>1</v>
+      </c>
+      <c r="S43" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000001</v>
+      </c>
+      <c r="X43" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>01000</v>
+      </c>
+      <c r="AC43" s="30">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="41"/>
+      <c r="B44" s="36">
+        <v>2</v>
+      </c>
+      <c r="C44" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000010</v>
+      </c>
+      <c r="G44" s="35">
+        <v>1</v>
+      </c>
+      <c r="L44" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>10000</v>
+      </c>
+      <c r="M44" s="30">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="36">
+        <v>2</v>
+      </c>
+      <c r="S44" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000010</v>
+      </c>
+      <c r="W44" s="35">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB44" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>10001</v>
+      </c>
+      <c r="AC44" s="30">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="41"/>
+      <c r="B45" s="36">
+        <v>3</v>
+      </c>
+      <c r="C45" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000011</v>
+      </c>
+      <c r="G45" s="35">
+        <v>1</v>
+      </c>
+      <c r="H45" s="35">
+        <v>1</v>
+      </c>
+      <c r="I45" s="35">
+        <v>1</v>
+      </c>
+      <c r="L45" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>11100</v>
+      </c>
+      <c r="M45" s="30">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="Q45" s="41"/>
+      <c r="R45" s="36">
+        <v>3</v>
+      </c>
+      <c r="S45" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000011</v>
+      </c>
+      <c r="W45" s="35">
+        <v>1</v>
+      </c>
+      <c r="X45" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB45" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>11110</v>
+      </c>
+      <c r="AC45" s="30">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="41"/>
+      <c r="B46" s="36">
+        <v>4</v>
+      </c>
+      <c r="C46" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000100</v>
+      </c>
+      <c r="G46" s="35">
+        <v>1</v>
+      </c>
+      <c r="J46" s="35">
+        <v>1</v>
+      </c>
+      <c r="L46" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>10010</v>
+      </c>
+      <c r="M46" s="30">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="Q46" s="41"/>
+      <c r="R46" s="36">
+        <v>4</v>
+      </c>
+      <c r="S46" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000100</v>
+      </c>
+      <c r="W46" s="35">
+        <v>1</v>
+      </c>
+      <c r="AA46" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB46" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>10001</v>
+      </c>
+      <c r="AC46" s="30">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="41"/>
+      <c r="B47" s="36">
+        <v>5</v>
+      </c>
+      <c r="C47" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000101</v>
+      </c>
+      <c r="G47" s="35">
+        <v>1</v>
+      </c>
+      <c r="J47" s="35">
+        <v>1</v>
+      </c>
+      <c r="L47" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>10010</v>
+      </c>
+      <c r="M47" s="30">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="Q47" s="41"/>
+      <c r="R47" s="36">
+        <v>5</v>
+      </c>
+      <c r="S47" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000101</v>
+      </c>
+      <c r="W47" s="35">
+        <v>1</v>
+      </c>
+      <c r="AA47" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB47" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>10001</v>
+      </c>
+      <c r="AC47" s="30">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="41"/>
+      <c r="B48" s="36">
+        <v>6</v>
+      </c>
+      <c r="C48" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000110</v>
+      </c>
+      <c r="H48" s="35">
+        <v>1</v>
+      </c>
+      <c r="I48" s="35">
+        <v>1</v>
+      </c>
+      <c r="L48" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>01100</v>
+      </c>
+      <c r="M48" s="30">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="Q48" s="41"/>
+      <c r="R48" s="36">
+        <v>6</v>
+      </c>
+      <c r="S48" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000110</v>
+      </c>
+      <c r="X48" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB48" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>01110</v>
+      </c>
+      <c r="AC48" s="30">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="42"/>
+      <c r="B49" s="37">
+        <v>7</v>
+      </c>
+      <c r="C49" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>00000111</v>
+      </c>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>00000</v>
+      </c>
+      <c r="M49" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="42"/>
+      <c r="R49" s="37">
+        <v>7</v>
+      </c>
+      <c r="S49" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>00000111</v>
+      </c>
+      <c r="T49" s="34"/>
+      <c r="U49" s="34"/>
+      <c r="V49" s="34"/>
+      <c r="W49" s="34">
+        <v>1</v>
+      </c>
+      <c r="X49" s="34">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z49" s="34">
+        <v>1</v>
+      </c>
+      <c r="AA49" s="34">
+        <v>1</v>
+      </c>
+      <c r="AB49" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>11111</v>
+      </c>
+      <c r="AC49" s="30">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="40">
+        <v>6</v>
+      </c>
+      <c r="B50" s="36">
+        <v>0</v>
+      </c>
+      <c r="C50" s="36" t="str">
+        <f>TEXT(DEC2BIN(B50), "00000000")</f>
+        <v>00000000</v>
+      </c>
+      <c r="L50" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>00000</v>
+      </c>
+      <c r="M50" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="40">
+        <v>6</v>
+      </c>
+      <c r="R50" s="36">
+        <v>0</v>
+      </c>
+      <c r="S50" s="36" t="str">
+        <f>TEXT(DEC2BIN(R50), "00000000")</f>
+        <v>00000000</v>
+      </c>
+      <c r="W50" s="35">
+        <v>1</v>
+      </c>
+      <c r="X50" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z50" s="35">
+        <v>1</v>
+      </c>
+      <c r="AA50" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB50" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>11111</v>
+      </c>
+      <c r="AC50" s="30">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="AD50" s="31" t="str">
+        <f>_xlfn.CONCAT(TEXT(AC50,"00"),",",TEXT(AC51,"00"),",",TEXT(AC52,"00"),",",TEXT(AC53,"00"),",",TEXT(AC54,"00"),",",TEXT(AC55,"00"),",",TEXT(AC56,"00"),",",TEXT(AC57,"00"))</f>
+        <v>31,17,01,18,04,04,04,31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="41"/>
+      <c r="B51" s="36">
+        <v>1</v>
+      </c>
+      <c r="C51" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000001</v>
+      </c>
+      <c r="G51" s="35">
+        <v>1</v>
+      </c>
+      <c r="H51" s="35">
+        <v>1</v>
+      </c>
+      <c r="I51" s="35">
+        <v>1</v>
+      </c>
+      <c r="J51" s="35">
+        <v>1</v>
+      </c>
+      <c r="L51" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>11110</v>
+      </c>
+      <c r="M51" s="30">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="Q51" s="41"/>
+      <c r="R51" s="36">
+        <v>1</v>
+      </c>
+      <c r="S51" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000001</v>
+      </c>
+      <c r="W51" s="35">
+        <v>1</v>
+      </c>
+      <c r="AA51" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB51" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>10001</v>
+      </c>
+      <c r="AC51" s="30">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="41"/>
+      <c r="B52" s="36">
+        <v>2</v>
+      </c>
+      <c r="C52" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000010</v>
+      </c>
+      <c r="J52" s="35">
+        <v>1</v>
+      </c>
+      <c r="L52" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>00010</v>
+      </c>
+      <c r="M52" s="30">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q52" s="41"/>
+      <c r="R52" s="36">
+        <v>2</v>
+      </c>
+      <c r="S52" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000010</v>
+      </c>
+      <c r="AA52" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB52" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>00001</v>
+      </c>
+      <c r="AC52" s="30">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="41"/>
+      <c r="B53" s="36">
+        <v>3</v>
+      </c>
+      <c r="C53" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000011</v>
+      </c>
+      <c r="I53" s="35">
+        <v>1</v>
+      </c>
+      <c r="L53" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>00100</v>
+      </c>
+      <c r="M53" s="30">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q53" s="41"/>
+      <c r="R53" s="36">
+        <v>3</v>
+      </c>
+      <c r="S53" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000011</v>
+      </c>
+      <c r="W53" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z53" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB53" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>10010</v>
+      </c>
+      <c r="AC53" s="30">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="41"/>
+      <c r="B54" s="36">
+        <v>4</v>
+      </c>
+      <c r="C54" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000100</v>
+      </c>
+      <c r="H54" s="35">
+        <v>1</v>
+      </c>
+      <c r="L54" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>01000</v>
+      </c>
+      <c r="M54" s="30">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="Q54" s="41"/>
+      <c r="R54" s="36">
+        <v>4</v>
+      </c>
+      <c r="S54" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000100</v>
+      </c>
+      <c r="Y54" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB54" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>00100</v>
+      </c>
+      <c r="AC54" s="30">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="41"/>
+      <c r="B55" s="36">
+        <v>5</v>
+      </c>
+      <c r="C55" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000101</v>
+      </c>
+      <c r="H55" s="35">
+        <v>1</v>
+      </c>
+      <c r="L55" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>01000</v>
+      </c>
+      <c r="M55" s="30">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="Q55" s="41"/>
+      <c r="R55" s="36">
+        <v>5</v>
+      </c>
+      <c r="S55" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000101</v>
+      </c>
+      <c r="Y55" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB55" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>00100</v>
+      </c>
+      <c r="AC55" s="30">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="41"/>
+      <c r="B56" s="36">
+        <v>6</v>
+      </c>
+      <c r="C56" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000110</v>
+      </c>
+      <c r="H56" s="35">
+        <v>1</v>
+      </c>
+      <c r="L56" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>01000</v>
+      </c>
+      <c r="M56" s="30">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="Q56" s="41"/>
+      <c r="R56" s="36">
+        <v>6</v>
+      </c>
+      <c r="S56" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000110</v>
+      </c>
+      <c r="Y56" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB56" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>00100</v>
+      </c>
+      <c r="AC56" s="30">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="42"/>
+      <c r="B57" s="37">
+        <v>7</v>
+      </c>
+      <c r="C57" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>00000111</v>
+      </c>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>00000</v>
+      </c>
+      <c r="M57" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="42"/>
+      <c r="R57" s="37">
+        <v>7</v>
+      </c>
+      <c r="S57" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>00000111</v>
+      </c>
+      <c r="T57" s="34"/>
+      <c r="U57" s="34"/>
+      <c r="V57" s="34"/>
+      <c r="W57" s="34">
+        <v>1</v>
+      </c>
+      <c r="X57" s="34">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z57" s="34">
+        <v>1</v>
+      </c>
+      <c r="AA57" s="34">
+        <v>1</v>
+      </c>
+      <c r="AB57" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>11111</v>
+      </c>
+      <c r="AC57" s="30">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="40">
+        <v>7</v>
+      </c>
+      <c r="B58" s="36">
+        <v>0</v>
+      </c>
+      <c r="C58" s="36" t="str">
+        <f>TEXT(DEC2BIN(B58), "00000000")</f>
+        <v>00000000</v>
+      </c>
+      <c r="L58" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>00000</v>
+      </c>
+      <c r="M58" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="40">
+        <v>7</v>
+      </c>
+      <c r="R58" s="36">
+        <v>0</v>
+      </c>
+      <c r="S58" s="36" t="str">
+        <f>TEXT(DEC2BIN(R58), "00000000")</f>
+        <v>00000000</v>
+      </c>
+      <c r="X58" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y58" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z58" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB58" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>01110</v>
+      </c>
+      <c r="AC58" s="30">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="AD58" s="31" t="str">
+        <f>_xlfn.CONCAT(TEXT(AC58,"00"),",",TEXT(AC59,"00"),",",TEXT(AC60,"00"),",",TEXT(AC61,"00"),",",TEXT(AC62,"00"),",",TEXT(AC63,"00"),",",TEXT(AC64,"00"),",",TEXT(AC65,"00"))</f>
+        <v>14,17,21,14,21,17,14,31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="41"/>
+      <c r="B59" s="36">
+        <v>1</v>
+      </c>
+      <c r="C59" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000001</v>
+      </c>
+      <c r="H59" s="35">
+        <v>1</v>
+      </c>
+      <c r="I59" s="35">
+        <v>1</v>
+      </c>
+      <c r="L59" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>01100</v>
+      </c>
+      <c r="M59" s="30">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="Q59" s="41"/>
+      <c r="R59" s="36">
+        <v>1</v>
+      </c>
+      <c r="S59" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000001</v>
+      </c>
+      <c r="W59" s="35">
+        <v>1</v>
+      </c>
+      <c r="AA59" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB59" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>10001</v>
+      </c>
+      <c r="AC59" s="30">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="41"/>
+      <c r="B60" s="36">
+        <v>2</v>
+      </c>
+      <c r="C60" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000010</v>
+      </c>
+      <c r="G60" s="35">
+        <v>1</v>
+      </c>
+      <c r="J60" s="35">
+        <v>1</v>
+      </c>
+      <c r="L60" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>10010</v>
+      </c>
+      <c r="M60" s="30">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="Q60" s="41"/>
+      <c r="R60" s="36">
+        <v>2</v>
+      </c>
+      <c r="S60" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000010</v>
+      </c>
+      <c r="W60" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y60" s="35">
+        <v>1</v>
+      </c>
+      <c r="AA60" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB60" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>10101</v>
+      </c>
+      <c r="AC60" s="30">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="41"/>
+      <c r="B61" s="36">
+        <v>3</v>
+      </c>
+      <c r="C61" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000011</v>
+      </c>
+      <c r="H61" s="35">
+        <v>1</v>
+      </c>
+      <c r="I61" s="35">
+        <v>1</v>
+      </c>
+      <c r="L61" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>01100</v>
+      </c>
+      <c r="M61" s="30">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="Q61" s="41"/>
+      <c r="R61" s="36">
+        <v>3</v>
+      </c>
+      <c r="S61" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000011</v>
+      </c>
+      <c r="X61" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y61" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z61" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB61" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>01110</v>
+      </c>
+      <c r="AC61" s="30">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="41"/>
+      <c r="B62" s="36">
+        <v>4</v>
+      </c>
+      <c r="C62" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000100</v>
+      </c>
+      <c r="G62" s="35">
+        <v>1</v>
+      </c>
+      <c r="J62" s="35">
+        <v>1</v>
+      </c>
+      <c r="L62" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>10010</v>
+      </c>
+      <c r="M62" s="30">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="Q62" s="41"/>
+      <c r="R62" s="36">
+        <v>4</v>
+      </c>
+      <c r="S62" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000100</v>
+      </c>
+      <c r="W62" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y62" s="35">
+        <v>1</v>
+      </c>
+      <c r="AA62" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB62" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>10101</v>
+      </c>
+      <c r="AC62" s="30">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="41"/>
+      <c r="B63" s="36">
+        <v>5</v>
+      </c>
+      <c r="C63" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000101</v>
+      </c>
+      <c r="G63" s="35">
+        <v>1</v>
+      </c>
+      <c r="J63" s="35">
+        <v>1</v>
+      </c>
+      <c r="L63" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>10010</v>
+      </c>
+      <c r="M63" s="30">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="Q63" s="41"/>
+      <c r="R63" s="36">
+        <v>5</v>
+      </c>
+      <c r="S63" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000101</v>
+      </c>
+      <c r="W63" s="35">
+        <v>1</v>
+      </c>
+      <c r="AA63" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB63" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>10001</v>
+      </c>
+      <c r="AC63" s="30">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="41"/>
+      <c r="B64" s="36">
+        <v>6</v>
+      </c>
+      <c r="C64" s="36" t="str">
+        <f t="shared" si="0"/>
+        <v>00000110</v>
+      </c>
+      <c r="H64" s="35">
+        <v>1</v>
+      </c>
+      <c r="I64" s="35">
+        <v>1</v>
+      </c>
+      <c r="L64" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>01100</v>
+      </c>
+      <c r="M64" s="30">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="Q64" s="41"/>
+      <c r="R64" s="36">
+        <v>6</v>
+      </c>
+      <c r="S64" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>00000110</v>
+      </c>
+      <c r="X64" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y64" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z64" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB64" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>01110</v>
+      </c>
+      <c r="AC64" s="30">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="42"/>
+      <c r="B65" s="37">
+        <v>7</v>
+      </c>
+      <c r="C65" s="37" t="str">
+        <f t="shared" si="0"/>
+        <v>00000111</v>
+      </c>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="34"/>
+      <c r="J65" s="34"/>
+      <c r="K65" s="34"/>
+      <c r="L65" s="33" t="str">
+        <f t="shared" si="8"/>
+        <v>00000</v>
+      </c>
+      <c r="M65" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="42"/>
+      <c r="R65" s="37">
+        <v>7</v>
+      </c>
+      <c r="S65" s="37" t="str">
+        <f t="shared" si="3"/>
+        <v>00000111</v>
+      </c>
+      <c r="T65" s="34"/>
+      <c r="U65" s="34"/>
+      <c r="V65" s="34"/>
+      <c r="W65" s="34">
+        <v>1</v>
+      </c>
+      <c r="X65" s="34">
+        <v>1</v>
+      </c>
+      <c r="Y65" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z65" s="34">
+        <v>1</v>
+      </c>
+      <c r="AA65" s="34">
+        <v>1</v>
+      </c>
+      <c r="AB65" s="33" t="str">
+        <f t="shared" si="4"/>
+        <v>11111</v>
+      </c>
+      <c r="AC65" s="30">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A50:A57"/>
+    <mergeCell ref="A58:A65"/>
+    <mergeCell ref="Q2:Q9"/>
+    <mergeCell ref="Q10:Q17"/>
+    <mergeCell ref="Q18:Q25"/>
+    <mergeCell ref="Q26:Q33"/>
+    <mergeCell ref="Q34:Q41"/>
+    <mergeCell ref="Q42:Q49"/>
+    <mergeCell ref="Q50:Q57"/>
+    <mergeCell ref="Q58:Q65"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="A42:A49"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G2:K1000">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>G2&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W2:AA1000">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>W2&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="261" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22885FAD-77E4-4A40-B20D-74B98E80167D}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -1918,10 +5463,10 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
         <v>20</v>
@@ -1954,7 +5499,7 @@
         <v>27</v>
       </c>
       <c r="O1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -1997,7 +5542,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2038,7 +5583,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B12" si="0">POWER(2,A5)</f>
+        <f t="shared" ref="B5:B11" si="0">POWER(2,A5)</f>
         <v>2</v>
       </c>
       <c r="D5">

--- a/Documents/Implementation.xlsx
+++ b/Documents/Implementation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Androvil\Visual Studio 2013\Projects\HomeAutomation\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A19EC0D-4982-49F3-84DE-7245F96747C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E848A388-EAFE-4DA6-B0FB-1CB482272BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15075" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,12 +19,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="76">
   <si>
     <t>:</t>
   </si>
@@ -234,6 +233,24 @@
   </si>
   <si>
     <t>Watering Valves</t>
+  </si>
+  <si>
+    <t>N282</t>
+  </si>
+  <si>
+    <t>N103</t>
+  </si>
+  <si>
+    <t>N355</t>
+  </si>
+  <si>
+    <t>N356</t>
+  </si>
+  <si>
+    <t>N222</t>
+  </si>
+  <si>
+    <t>N330</t>
   </si>
 </sst>
 </file>
@@ -1898,10 +1915,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3D171E-0B30-4DB0-9874-E1EE89943674}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2186,12 +2203,84 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>53</v>
       </c>
       <c r="B33">
         <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="str">
+        <f>_xlfn.CONCAT(A40," x ",TEXT(B40,"##"), "бр.")</f>
+        <v>N282 x 1бр.</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" ref="C41:C45" si="0">_xlfn.CONCAT(A41," x ",TEXT(B41,"##"), "бр.")</f>
+        <v>N103 x 1бр.</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>N355 x 10бр.</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>N356 x 10бр.</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>N222 x 1бр.</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>N330 x 10бр.</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Implementation.xlsx
+++ b/Documents/Implementation.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Androvil\Visual Studio 2013\Projects\HomeAutomation\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E848A388-EAFE-4DA6-B0FB-1CB482272BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76AC792-0A62-4D31-9039-C09CF22D84FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15075" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15075" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hardware" sheetId="2" r:id="rId2"/>
     <sheet name="Custom Chars" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Expander" sheetId="3" r:id="rId4"/>
+    <sheet name="LED" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
   <si>
     <t>:</t>
   </si>
@@ -223,18 +224,9 @@
     <t>h</t>
   </si>
   <si>
-    <t>Watering State ( North Switch Position)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(South Valve State)  </t>
-  </si>
-  <si>
     <t>V</t>
   </si>
   <si>
-    <t>Watering Valves</t>
-  </si>
-  <si>
     <t>N282</t>
   </si>
   <si>
@@ -251,13 +243,167 @@
   </si>
   <si>
     <t>N330</t>
+  </si>
+  <si>
+    <t>Син прозрачен</t>
+  </si>
+  <si>
+    <t>Зелен</t>
+  </si>
+  <si>
+    <t>Червен</t>
+  </si>
+  <si>
+    <t>I(mA)</t>
+  </si>
+  <si>
+    <t>Rd(Ohm) (R2)</t>
+  </si>
+  <si>
+    <t>Ohm</t>
+  </si>
+  <si>
+    <t>Цвят</t>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(V) (VM1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>R1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(V)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>пробен</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>limit</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Ohm)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cc</t>
+    </r>
+  </si>
+  <si>
+    <t>Зелен
+Червен</t>
+  </si>
+  <si>
+    <t>Зелен мигащ</t>
+  </si>
+  <si>
+    <t>Watering State ( North Main and Switch Position)</t>
+  </si>
+  <si>
+    <t>South Main and Valves</t>
+  </si>
+  <si>
+    <t>Watering Mains and Valves</t>
+  </si>
+  <si>
+    <t>Main On Character DEC - 200</t>
+  </si>
+  <si>
+    <t>Main Off Character DEC - 219</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -284,8 +430,29 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,8 +465,13 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -461,11 +633,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -573,8 +761,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="15" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -609,6 +811,294 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>138112</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1843088" cy="695325"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1741AA3-6A8E-1AC7-28AB-853B97F440E6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5957887" y="3228974"/>
+              <a:ext cx="1843088" cy="695325"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑅</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑙𝑖𝑚𝑖𝑡</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1800" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1800" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑉</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑐𝑐</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1800" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑉</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑑</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1800" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐼</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1741AA3-6A8E-1AC7-28AB-853B97F440E6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5957887" y="3228974"/>
+              <a:ext cx="1843088" cy="695325"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑅_𝑙𝑖𝑚𝑖𝑡=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1800" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑉_(𝑐𝑐−) 𝑉_𝑑)/𝐼</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>394740</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19268</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11A2A66A-895E-06C6-B48A-BA5ABB0EAA3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5810250" y="209550"/>
+          <a:ext cx="4671465" cy="2514818"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -908,89 +1398,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:Z29"/>
+  <dimension ref="A4:Y31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="2.7109375" customWidth="1"/>
-    <col min="4" max="24" width="2.7109375" style="1" customWidth="1"/>
-    <col min="25" max="29" width="2.7109375" customWidth="1"/>
-    <col min="16380" max="16384" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="42.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="23" width="2.7109375" style="1" customWidth="1"/>
+    <col min="24" max="28" width="2.7109375" customWidth="1"/>
+    <col min="16379" max="16384" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="E4" s="2">
-        <v>0</v>
+    <row r="4" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
       </c>
       <c r="F4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K4" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L4" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M4" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N4" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O4" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P4" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R4" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S4" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T4" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U4" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="V4" s="3">
-        <v>17</v>
-      </c>
-      <c r="W4" s="3">
         <v>18</v>
       </c>
-      <c r="X4" s="4">
+      <c r="W4" s="4">
         <v>19</v>
       </c>
-      <c r="Y4" s="1"/>
-    </row>
-    <row r="5" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6"/>
+      <c r="X4" s="1"/>
+    </row>
+    <row r="5" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -1004,118 +1495,118 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
+      <c r="S5" s="7">
+        <v>0</v>
+      </c>
       <c r="T5" s="7">
-        <v>0</v>
-      </c>
-      <c r="U5" s="7">
         <v>8</v>
       </c>
-      <c r="V5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="W5" s="7">
+      <c r="U5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="V5" s="7">
         <v>3</v>
       </c>
-      <c r="X5" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D6" s="9">
-        <v>1</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>1</v>
+      <c r="W5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="L6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="N6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O6" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="P6" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="Q6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="1"/>
-    </row>
-    <row r="7" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D7" s="9">
+      <c r="W6" s="11"/>
+      <c r="X6" s="1"/>
+    </row>
+    <row r="7" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C7" s="9">
         <v>2</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="F7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="O7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="1"/>
-    </row>
-    <row r="8" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D8" s="12">
+      <c r="W7" s="11"/>
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C8" s="12">
         <v>3</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -1133,77 +1624,77 @@
       <c r="T8" s="14"/>
       <c r="U8" s="14"/>
       <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="1"/>
-    </row>
-    <row r="10" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="E10" s="2">
-        <v>0</v>
+      <c r="W8" s="15"/>
+      <c r="X8" s="1"/>
+    </row>
+    <row r="10" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
       </c>
       <c r="F10" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J10" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K10" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L10" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M10" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N10" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O10" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P10" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R10" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S10" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T10" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U10" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="V10" s="3">
-        <v>17</v>
-      </c>
-      <c r="W10" s="3">
         <v>18</v>
       </c>
-      <c r="X10" s="4">
+      <c r="W10" s="4">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="16"/>
+    <row r="11" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
@@ -1212,71 +1703,71 @@
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
+      <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
+      <c r="S11" s="7">
+        <v>0</v>
+      </c>
       <c r="T11" s="7">
-        <v>0</v>
-      </c>
-      <c r="U11" s="7">
         <v>8</v>
       </c>
-      <c r="V11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="W11" s="7">
+      <c r="U11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="V11" s="7">
         <v>3</v>
       </c>
-      <c r="X11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D12" s="9">
-        <v>1</v>
-      </c>
-      <c r="E12" s="18"/>
+      <c r="W11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
+      <c r="G12" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="H12" s="19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="19" t="s">
         <v>18</v>
       </c>
+      <c r="K12" s="19"/>
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
+      <c r="S12" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="T12" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X12" s="11" t="s">
+      <c r="W12" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D13" s="9">
+    <row r="13" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C13" s="9">
         <v>2</v>
       </c>
-      <c r="E13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
@@ -1285,14 +1776,14 @@
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="X13" s="11"/>
-    </row>
-    <row r="14" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D14" s="12">
+      <c r="W13" s="11"/>
+    </row>
+    <row r="14" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="C14" s="12">
         <v>3</v>
       </c>
-      <c r="E14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
@@ -1301,126 +1792,126 @@
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="14" t="s">
+      <c r="N14" s="14"/>
+      <c r="O14" s="14">
+        <v>0</v>
+      </c>
+      <c r="P14" s="14" t="s">
         <v>21</v>
       </c>
+      <c r="Q14" s="14">
+        <v>1</v>
+      </c>
       <c r="R14" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S14" s="14">
+        <v>3</v>
+      </c>
+      <c r="T14" s="14">
+        <v>4</v>
+      </c>
+      <c r="U14" s="14">
+        <v>5</v>
+      </c>
+      <c r="V14" s="14">
+        <v>6</v>
+      </c>
+      <c r="W14" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
         <v>2</v>
       </c>
-      <c r="T14" s="14">
+      <c r="G16" s="3">
         <v>3</v>
       </c>
-      <c r="U14" s="14">
+      <c r="H16" s="3">
         <v>4</v>
       </c>
-      <c r="V14" s="14">
+      <c r="I16" s="3">
         <v>5</v>
       </c>
-      <c r="W14" s="14">
+      <c r="J16" s="3">
         <v>6</v>
       </c>
-      <c r="X14" s="15">
+      <c r="K16" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="L16" s="3">
+        <v>8</v>
+      </c>
+      <c r="M16" s="3">
+        <v>9</v>
+      </c>
+      <c r="N16" s="3">
+        <v>10</v>
+      </c>
+      <c r="O16" s="3">
+        <v>11</v>
+      </c>
+      <c r="P16" s="3">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>13</v>
+      </c>
+      <c r="R16" s="3">
+        <v>14</v>
+      </c>
+      <c r="S16" s="3">
+        <v>15</v>
+      </c>
+      <c r="T16" s="3">
+        <v>16</v>
+      </c>
+      <c r="U16" s="3">
+        <v>17</v>
+      </c>
+      <c r="V16" s="3">
+        <v>18</v>
+      </c>
+      <c r="W16" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A17" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
         <v>2</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="7">
         <v>3</v>
       </c>
-      <c r="I16" s="3">
+      <c r="J17" s="7">
         <v>4</v>
       </c>
-      <c r="J16" s="3">
-        <v>5</v>
-      </c>
-      <c r="K16" s="3">
-        <v>6</v>
-      </c>
-      <c r="L16" s="3">
-        <v>7</v>
-      </c>
-      <c r="M16" s="3">
-        <v>8</v>
-      </c>
-      <c r="N16" s="3">
-        <v>9</v>
-      </c>
-      <c r="O16" s="3">
-        <v>10</v>
-      </c>
-      <c r="P16" s="3">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>12</v>
-      </c>
-      <c r="R16" s="3">
-        <v>13</v>
-      </c>
-      <c r="S16" s="3">
-        <v>14</v>
-      </c>
-      <c r="T16" s="3">
-        <v>15</v>
-      </c>
-      <c r="U16" s="3">
-        <v>16</v>
-      </c>
-      <c r="V16" s="3">
-        <v>17</v>
-      </c>
-      <c r="W16" s="3">
-        <v>18</v>
-      </c>
-      <c r="X16" s="4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7">
-        <v>2</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="7">
-        <v>3</v>
-      </c>
-      <c r="K17" s="7">
-        <v>4</v>
-      </c>
+      <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
@@ -1428,159 +1919,161 @@
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
+      <c r="S17" s="7">
+        <v>0</v>
+      </c>
       <c r="T17" s="7">
-        <v>0</v>
-      </c>
-      <c r="U17" s="7">
         <v>8</v>
       </c>
-      <c r="V17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="W17" s="7">
+      <c r="U17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="V17" s="7">
         <v>3</v>
       </c>
-      <c r="X17" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="W17" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A18" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="9">
-        <v>1</v>
-      </c>
-      <c r="E18" s="10" t="s">
+      <c r="C18" s="9">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10" t="s">
         <v>24</v>
       </c>
+      <c r="E18" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
       </c>
       <c r="H18" s="1">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K18" s="1">
+      <c r="J18" s="1">
         <v>2</v>
       </c>
+      <c r="S18" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="T18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A19" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="9">
+        <v>2</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1">
+        <v>3</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V18" s="1" t="s">
+      <c r="N19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1</v>
+      </c>
+      <c r="P19" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>3</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W19" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A20" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="12">
+        <v>3</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="W18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="X18" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="9">
-        <v>2</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
-      <c r="I19" s="1">
-        <v>2</v>
-      </c>
-      <c r="J19" s="1">
+      <c r="E20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="14">
         <v>3</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P19" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>2</v>
-      </c>
-      <c r="R19" s="1">
-        <v>3</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="X19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="12">
-        <v>3</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="K20" s="14">
-        <v>2</v>
       </c>
       <c r="L20" s="14"/>
       <c r="M20" s="14" t="s">
@@ -1601,114 +2094,116 @@
       <c r="R20" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="S20" s="14">
-        <v>1</v>
+      <c r="S20" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="T20" s="14">
+        <v>1</v>
+      </c>
+      <c r="U20" s="14">
         <v>2</v>
       </c>
-      <c r="U20" s="14">
+      <c r="V20" s="14">
         <v>3</v>
       </c>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="15"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E24" s="2">
-        <v>0</v>
+      <c r="W20" s="15">
+        <v>4</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
       </c>
       <c r="F24" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" s="3">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3">
+        <v>4</v>
+      </c>
+      <c r="I24" s="3">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3">
+        <v>6</v>
+      </c>
+      <c r="K24" s="3">
+        <v>7</v>
+      </c>
+      <c r="L24" s="3">
+        <v>8</v>
+      </c>
+      <c r="M24" s="3">
+        <v>9</v>
+      </c>
+      <c r="N24" s="3">
+        <v>10</v>
+      </c>
+      <c r="O24" s="3">
+        <v>11</v>
+      </c>
+      <c r="P24" s="3">
+        <v>12</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>13</v>
+      </c>
+      <c r="R24" s="3">
+        <v>14</v>
+      </c>
+      <c r="S24" s="3">
+        <v>15</v>
+      </c>
+      <c r="T24" s="3">
+        <v>16</v>
+      </c>
+      <c r="U24" s="3">
+        <v>17</v>
+      </c>
+      <c r="V24" s="3">
+        <v>18</v>
+      </c>
+      <c r="W24" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A25" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="7">
         <v>2</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="7">
         <v>3</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J25" s="7">
         <v>4</v>
       </c>
-      <c r="J24" s="3">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
-        <v>6</v>
-      </c>
-      <c r="L24" s="3">
-        <v>7</v>
-      </c>
-      <c r="M24" s="3">
-        <v>8</v>
-      </c>
-      <c r="N24" s="3">
-        <v>9</v>
-      </c>
-      <c r="O24" s="3">
-        <v>10</v>
-      </c>
-      <c r="P24" s="3">
-        <v>11</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>12</v>
-      </c>
-      <c r="R24" s="3">
-        <v>13</v>
-      </c>
-      <c r="S24" s="3">
-        <v>14</v>
-      </c>
-      <c r="T24" s="3">
-        <v>15</v>
-      </c>
-      <c r="U24" s="3">
-        <v>16</v>
-      </c>
-      <c r="V24" s="3">
-        <v>17</v>
-      </c>
-      <c r="W24" s="3">
-        <v>18</v>
-      </c>
-      <c r="X24" s="4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="5">
-        <v>0</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H25" s="7">
-        <v>2</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="7">
-        <v>3</v>
-      </c>
-      <c r="K25" s="7">
-        <v>4</v>
-      </c>
+      <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
@@ -1716,147 +2211,149 @@
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
+      <c r="S25" s="7">
+        <v>0</v>
+      </c>
       <c r="T25" s="7">
-        <v>0</v>
-      </c>
-      <c r="U25" s="7">
         <v>8</v>
       </c>
-      <c r="V25" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="W25" s="7">
+      <c r="U25" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="V25" s="7">
         <v>3</v>
       </c>
-      <c r="X25" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="W25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A26" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="9">
-        <v>1</v>
-      </c>
-      <c r="E26" s="10" t="s">
+      <c r="C26" s="9">
+        <v>1</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>24</v>
       </c>
+      <c r="E26" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
       </c>
       <c r="H26" s="1">
-        <v>1</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K26" s="1">
+      <c r="J26" s="1">
         <v>2</v>
       </c>
+      <c r="S26" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="T26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W26" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A27" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="9">
+        <v>2</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2</v>
+      </c>
+      <c r="I27" s="1">
+        <v>3</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V26" s="1" t="s">
+      <c r="N27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>1</v>
+      </c>
+      <c r="P27" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>3</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W27" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A28" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="12">
+        <v>3</v>
+      </c>
+      <c r="D28" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="W26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="X26" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="9">
-        <v>2</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1">
-        <v>1</v>
-      </c>
-      <c r="I27" s="1">
-        <v>2</v>
-      </c>
-      <c r="J27" s="1">
-        <v>3</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P27" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>2</v>
-      </c>
-      <c r="R27" s="1">
-        <v>3</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="X27" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="12">
-        <v>3</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>25</v>
+      <c r="E28" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H28" s="14">
         <v>1</v>
@@ -1877,15 +2374,17 @@
         <v>6</v>
       </c>
       <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
+      <c r="O28" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="P28" s="14" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="Q28" s="14" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="R28" s="14" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="S28" s="14">
         <v>1</v>
@@ -1896,12 +2395,20 @@
       <c r="U28" s="14">
         <v>3</v>
       </c>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="15"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A29" s="29"/>
+      <c r="V28" s="14">
+        <v>4</v>
+      </c>
+      <c r="W28" s="15"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="R30" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="R31" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -1917,8 +2424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3D171E-0B30-4DB0-9874-E1EE89943674}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2213,7 +2720,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -2225,7 +2732,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -2237,7 +2744,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B42">
         <v>10</v>
@@ -2249,7 +2756,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B43">
         <v>10</v>
@@ -2261,7 +2768,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -2273,7 +2780,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B45">
         <v>10</v>
@@ -5763,4 +6270,306 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B0B658-2EBB-4F68-A170-FD0A4D0F2FFC}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="46">
+        <v>330</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="48">
+        <v>5</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3">
+        <v>3.16</v>
+      </c>
+      <c r="C3">
+        <v>5.5</v>
+      </c>
+      <c r="D3" s="44">
+        <f>C3/270*1000</f>
+        <v>20.370370370370374</v>
+      </c>
+      <c r="E3" s="44">
+        <f t="shared" ref="E3:E15" si="0">B3/D3*1000</f>
+        <v>155.1272727272727</v>
+      </c>
+      <c r="F3" s="44">
+        <f>($E$1-B3)/D3*1000</f>
+        <v>90.3272727272727</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="C4">
+        <v>5.53</v>
+      </c>
+      <c r="D4" s="44">
+        <f t="shared" ref="D4:D5" si="1">C4/270*1000</f>
+        <v>20.481481481481481</v>
+      </c>
+      <c r="E4" s="44">
+        <f t="shared" si="0"/>
+        <v>99.113924050632903</v>
+      </c>
+      <c r="F4" s="44">
+        <f t="shared" ref="F4:F15" si="2">($E$1-B4)/D4*1000</f>
+        <v>145.00904159132008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="C5">
+        <v>5.5</v>
+      </c>
+      <c r="D5" s="44">
+        <f t="shared" si="1"/>
+        <v>20.370370370370374</v>
+      </c>
+      <c r="E5" s="44">
+        <f t="shared" si="0"/>
+        <v>101.61818181818178</v>
+      </c>
+      <c r="F5" s="44">
+        <f t="shared" si="2"/>
+        <v>143.83636363636361</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C6">
+        <v>6.5</v>
+      </c>
+      <c r="D6" s="44">
+        <f t="shared" ref="D6:D7" si="3">C6/330*1000</f>
+        <v>19.696969696969695</v>
+      </c>
+      <c r="E6" s="44">
+        <f t="shared" si="0"/>
+        <v>111.69230769230772</v>
+      </c>
+      <c r="F6" s="44">
+        <f t="shared" si="2"/>
+        <v>142.15384615384616</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="51"/>
+      <c r="B7">
+        <v>1.2</v>
+      </c>
+      <c r="C7">
+        <v>6.7</v>
+      </c>
+      <c r="D7" s="44">
+        <f t="shared" si="3"/>
+        <v>20.303030303030301</v>
+      </c>
+      <c r="E7" s="44">
+        <f t="shared" si="0"/>
+        <v>59.104477611940297</v>
+      </c>
+      <c r="F7" s="44">
+        <f t="shared" si="2"/>
+        <v>187.16417910447763</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>0.4</v>
+      </c>
+      <c r="D8" s="44">
+        <f>C8/330*1000</f>
+        <v>1.2121212121212122</v>
+      </c>
+      <c r="E8" s="44">
+        <f t="shared" si="0"/>
+        <v>4125</v>
+      </c>
+      <c r="F8" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="D9" s="44">
+        <f t="shared" ref="D4:D15" si="4">C9/$B$1*1000</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="44" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F9" s="44" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="D10" s="44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="44" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F10" s="44" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="D11" s="44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="44" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F11" s="44" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="D12" s="44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="44" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F12" s="44" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="D13" s="44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="44" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F13" s="44" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="D14" s="44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="44" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F14" s="44" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="D15" s="44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="44" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F15" s="44" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:A7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Documents/Implementation.xlsx
+++ b/Documents/Implementation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Androvil\Visual Studio 2013\Projects\HomeAutomation\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76AC792-0A62-4D31-9039-C09CF22D84FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5115FB07-10EC-45D0-8C3D-FF4D93A5ABE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15075" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-480" windowWidth="29040" windowHeight="15525" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="79">
   <si>
     <t>:</t>
   </si>
@@ -131,36 +131,6 @@
     <t>Кабел СВТ</t>
   </si>
   <si>
-    <t>https://tashev-galving.com/cat/200383/kabeli-i-provodnitsi?filter.115.%D0%A1%D0%B5%D1%87%D0%B5%D0%BD%D0%B8%D0%B5+%D0%BD%D0%B0+%D0%BF%D1%80%D0%BE%D0%B2%D0%BE%D0%B4%D0%BD%D0%B8%D0%BA=1.5&amp;filter.73.%D0%91%D1%80%D0%BE%D0%B9+%D0%B6%D0%B8%D0%BB%D0%B0=3&amp;search=%D1%81%D0%B2%D1%82</t>
-  </si>
-  <si>
-    <t>Кабел ШВПС</t>
-  </si>
-  <si>
-    <t>3х0.5</t>
-  </si>
-  <si>
-    <t>5х0.5</t>
-  </si>
-  <si>
-    <t>https://vikiwat.com/category/1060/instalatsionni-kabeli.html?filter-627%5B0%5D=44422&amp;filter-753%5B0%5D=34065</t>
-  </si>
-  <si>
-    <t>https://tashev-galving.com/cat/200383/kabeli-i-provodnitsi?filter.115.%D0%A1%D0%B5%D1%87%D0%B5%D0%BD%D0%B8%D0%B5+%D0%BD%D0%B0+%D0%BF%D1%80%D0%BE%D0%B2%D0%BE%D0%B4%D0%BD%D0%B8%D0%BA=0.75&amp;search=%D1%88%D0%B2%D0%BF%D1%81</t>
-  </si>
-  <si>
-    <t>Трансформатор</t>
-  </si>
-  <si>
-    <t>Предпазител</t>
-  </si>
-  <si>
-    <t>https://vikiwat.com/razdelitelen-transformator-a9a15219-230vac-12-24vac-25va</t>
-  </si>
-  <si>
-    <t>https://vikiwat.com/predpazitel-avtomtichen-ednopolyusen-1a-c-kriva-230vac-din-shina-a9f74101-schneider</t>
-  </si>
-  <si>
     <t>Клапи</t>
   </si>
   <si>
@@ -188,12 +158,6 @@
     <t>Цветя</t>
   </si>
   <si>
-    <t>https://valtronic.bg/bg/catalogsearch/result/?cat=0&amp;q=A9F74101</t>
-  </si>
-  <si>
-    <t>https://valtronic.bg/bg/safety-transformer-itr-25-va-12-24-v-ac-14-28-v-ac</t>
-  </si>
-  <si>
     <t>Current (A)</t>
   </si>
   <si>
@@ -225,24 +189,6 @@
   </si>
   <si>
     <t>V</t>
-  </si>
-  <si>
-    <t>N282</t>
-  </si>
-  <si>
-    <t>N103</t>
-  </si>
-  <si>
-    <t>N355</t>
-  </si>
-  <si>
-    <t>N356</t>
-  </si>
-  <si>
-    <t>N222</t>
-  </si>
-  <si>
-    <t>N330</t>
   </si>
   <si>
     <t>Син прозрачен</t>
@@ -398,11 +344,29 @@
   <si>
     <t>Main Off Character DEC - 219</t>
   </si>
+  <si>
+    <t>V(V)</t>
+  </si>
+  <si>
+    <t>V1(V)</t>
+  </si>
+  <si>
+    <t>R1(Ohm)</t>
+  </si>
+  <si>
+    <t>R2(Ohm)</t>
+  </si>
+  <si>
+    <t>https://tashev-galving.com/cat/200383/kabeli-i-provodnitsi?filter.115.%D0%A1%D0%B5%D1%87%D0%B5%D0%BD%D0%B8%D0%B5+%D0%BD%D0%B0+%D0%BF%D1%80%D0%BE%D0%B2%D0%BE%D0%B4%D0%BD%D0%B8%D0%BA=1.5&amp;filter.73.%D0%91%D1%80%D0%BE%D0%B9+%D0%B6%D0%B8%D0%BB%D0%B0=4&amp;search=%D1%81%D0%B2%D1%82D0%BE%D0%B9+%D0%B6%D0%B8%D0%BB%D0%B0=3&amp;search=%D1%81%D0%B2%D1%82</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -653,7 +617,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -752,6 +716,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="15" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -761,19 +731,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="15" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="15" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -815,6 +780,79 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>571500</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3073" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3073"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F1020FB-56EC-C3E5-FEB3-0892EE40FC58}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -823,8 +861,8 @@
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1843088" cy="695325"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -866,6 +904,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -986,7 +1025,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -1400,7 +1439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:Y31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
@@ -2046,7 +2085,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="29" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C20" s="12">
         <v>3</v>
@@ -2064,7 +2103,7 @@
         <v>7</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="I20" s="14" t="s">
         <v>0</v>
@@ -2089,7 +2128,7 @@
         <v>7</v>
       </c>
       <c r="Q20" s="14" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="R20" s="14" t="s">
         <v>0</v>
@@ -2110,7 +2149,7 @@
         <v>4</v>
       </c>
       <c r="Y20" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
@@ -2338,7 +2377,7 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="29" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C28" s="12">
         <v>3</v>
@@ -2347,7 +2386,7 @@
         <v>25</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F28" s="14" t="s">
         <v>0</v>
@@ -2378,7 +2417,7 @@
         <v>19</v>
       </c>
       <c r="P28" s="14" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Q28" s="14" t="s">
         <v>0</v>
@@ -2402,12 +2441,12 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="R30" s="1" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="R31" s="1" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2421,25 +2460,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3D171E-0B30-4DB0-9874-E1EE89943674}">
-  <dimension ref="A1:I45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3D171E-0B30-4DB0-9874-E1EE89943674}">
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E1">
-        <f>SUM(E3:E24)</f>
-        <v>1327.52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <f>SUM(E3:E9)</f>
+        <v>401.34999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -2456,343 +2496,218 @@
         <f>D3*C3</f>
         <v>225.99999999999997</v>
       </c>
-      <c r="I3" t="s">
+      <c r="G3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
       <c r="C4">
-        <v>1.3</v>
+        <v>35.07</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <f>D4*C4</f>
-        <v>19.5</v>
-      </c>
-      <c r="I4" t="s">
+        <v>175.35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="O11" s="22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12">
+        <f>SUM(B13:B23)</f>
+        <v>7</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="H12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12">
+        <v>0.09</v>
+      </c>
+      <c r="L12" s="51">
+        <f>(N12+O12)*M12/O12</f>
+        <v>4.95</v>
+      </c>
+      <c r="M12" s="52">
+        <v>3.3</v>
+      </c>
+      <c r="N12">
+        <v>1000</v>
+      </c>
+      <c r="O12">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13">
+        <v>0.03</v>
+      </c>
+      <c r="L13" s="52">
+        <v>5</v>
+      </c>
+      <c r="M13" s="51">
+        <f>O13*L13/(O13+N13)</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="N13">
+        <v>1000</v>
+      </c>
+      <c r="O13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5">
-        <v>1.53</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <f>D5*C5</f>
-        <v>15.3</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14">
+        <v>0.04</v>
+      </c>
+      <c r="L14" s="52">
+        <v>5</v>
+      </c>
+      <c r="M14" s="52">
+        <v>3.3</v>
+      </c>
+      <c r="N14" s="41">
+        <f>(L14/M14-1)*O14</f>
+        <v>1030.3030303030303</v>
+      </c>
+      <c r="O14">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15">
+        <v>0.06</v>
+      </c>
+      <c r="L15" s="52">
+        <v>5</v>
+      </c>
+      <c r="M15" s="52">
+        <v>3.3</v>
+      </c>
+      <c r="N15">
+        <v>1000</v>
+      </c>
+      <c r="O15" s="41">
+        <f>M15*N15/(L15-M15)</f>
+        <v>1941.1764705882351</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>41</v>
       </c>
-      <c r="E6">
-        <v>123</v>
-      </c>
-      <c r="I6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7">
-        <v>33</v>
-      </c>
-      <c r="I7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8">
-        <v>35.07</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <f>D8*C8</f>
-        <v>350.7</v>
-      </c>
-      <c r="I8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E13">
-        <f>SUM(E15:E37)</f>
-        <v>280.01</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16">
-        <v>1.3</v>
-      </c>
-      <c r="D16">
-        <v>15</v>
-      </c>
-      <c r="E16">
-        <f>D16*C16</f>
-        <v>19.5</v>
-      </c>
-      <c r="I16" t="s">
-        <v>39</v>
-      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="24"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17">
-        <v>1.53</v>
-      </c>
-      <c r="D17">
-        <v>10</v>
-      </c>
-      <c r="E17">
-        <f>D17*C17</f>
-        <v>15.3</v>
-      </c>
-      <c r="I17" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18">
-        <v>110</v>
-      </c>
-      <c r="I18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19">
-        <v>30</v>
-      </c>
-      <c r="I19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20">
-        <v>35.07</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20">
-        <f>D20*C20</f>
-        <v>105.21000000000001</v>
-      </c>
-      <c r="I20" t="s">
-        <v>46</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I25" s="22"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27">
-        <f>SUM(B28:B38)</f>
-        <v>7</v>
-      </c>
-      <c r="D27" s="23"/>
-      <c r="H27" t="s">
-        <v>57</v>
-      </c>
-      <c r="I27">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="H28" t="s">
-        <v>58</v>
-      </c>
-      <c r="I28">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="H29" t="s">
-        <v>59</v>
-      </c>
-      <c r="I29">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="H30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I30">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="D31" s="24"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>67</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40" t="str">
-        <f>_xlfn.CONCAT(A40," x ",TEXT(B40,"##"), "бр.")</f>
-        <v>N282 x 1бр.</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" t="str">
-        <f t="shared" ref="C41:C45" si="0">_xlfn.CONCAT(A41," x ",TEXT(B41,"##"), "бр.")</f>
-        <v>N103 x 1бр.</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42">
-        <v>10</v>
-      </c>
-      <c r="C42" t="str">
-        <f t="shared" si="0"/>
-        <v>N355 x 10бр.</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43">
-        <v>10</v>
-      </c>
-      <c r="C43" t="str">
-        <f t="shared" si="0"/>
-        <v>N356 x 10бр.</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>71</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44" t="str">
-        <f t="shared" si="0"/>
-        <v>N222 x 1бр.</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>72</v>
-      </c>
-      <c r="B45">
-        <v>10</v>
-      </c>
-      <c r="C45" t="str">
-        <f t="shared" si="0"/>
-        <v>N330 x 10бр.</v>
-      </c>
+      <c r="I26" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="261" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="3073" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="3073" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
 
@@ -2883,7 +2798,7 @@
       </c>
     </row>
     <row r="2" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40">
+      <c r="A2" s="46">
         <v>0</v>
       </c>
       <c r="B2" s="36">
@@ -2901,7 +2816,7 @@
         <f>BIN2DEC(L2)</f>
         <v>0</v>
       </c>
-      <c r="Q2" s="40">
+      <c r="Q2" s="46">
         <v>0</v>
       </c>
       <c r="R2" s="36">
@@ -2935,7 +2850,7 @@
       </c>
     </row>
     <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="36">
         <v>1</v>
       </c>
@@ -2954,7 +2869,7 @@
         <f t="shared" ref="M3:M65" si="2">BIN2DEC(L3)</f>
         <v>4</v>
       </c>
-      <c r="Q3" s="41"/>
+      <c r="Q3" s="47"/>
       <c r="R3" s="36">
         <v>1</v>
       </c>
@@ -2985,7 +2900,7 @@
       </c>
     </row>
     <row r="4" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="36">
         <v>2</v>
       </c>
@@ -3007,7 +2922,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="Q4" s="41"/>
+      <c r="Q4" s="47"/>
       <c r="R4" s="36">
         <v>2</v>
       </c>
@@ -3035,7 +2950,7 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="36">
         <v>3</v>
       </c>
@@ -3054,7 +2969,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q5" s="41"/>
+      <c r="Q5" s="47"/>
       <c r="R5" s="36">
         <v>3</v>
       </c>
@@ -3085,7 +3000,7 @@
       </c>
     </row>
     <row r="6" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="36">
         <v>4</v>
       </c>
@@ -3104,7 +3019,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q6" s="41"/>
+      <c r="Q6" s="47"/>
       <c r="R6" s="36">
         <v>4</v>
       </c>
@@ -3132,7 +3047,7 @@
       </c>
     </row>
     <row r="7" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="36">
         <v>5</v>
       </c>
@@ -3151,7 +3066,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q7" s="41"/>
+      <c r="Q7" s="47"/>
       <c r="R7" s="36">
         <v>5</v>
       </c>
@@ -3179,7 +3094,7 @@
       </c>
     </row>
     <row r="8" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="36">
         <v>6</v>
       </c>
@@ -3204,7 +3119,7 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="Q8" s="41"/>
+      <c r="Q8" s="47"/>
       <c r="R8" s="36">
         <v>6</v>
       </c>
@@ -3238,7 +3153,7 @@
       </c>
     </row>
     <row r="9" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="37">
         <v>7</v>
       </c>
@@ -3262,7 +3177,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="42"/>
+      <c r="Q9" s="48"/>
       <c r="R9" s="37">
         <v>7</v>
       </c>
@@ -3305,7 +3220,7 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40">
+      <c r="A10" s="46">
         <v>1</v>
       </c>
       <c r="B10" s="36">
@@ -3323,7 +3238,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="40">
+      <c r="Q10" s="46">
         <v>1</v>
       </c>
       <c r="R10" s="36">
@@ -3356,7 +3271,7 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="36">
         <v>1</v>
       </c>
@@ -3378,7 +3293,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="Q11" s="41"/>
+      <c r="Q11" s="47"/>
       <c r="R11" s="36">
         <v>1</v>
       </c>
@@ -3402,7 +3317,7 @@
       </c>
     </row>
     <row r="12" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="36">
         <v>2</v>
       </c>
@@ -3424,7 +3339,7 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="Q12" s="41"/>
+      <c r="Q12" s="47"/>
       <c r="R12" s="36">
         <v>2</v>
       </c>
@@ -3445,7 +3360,7 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="36">
         <v>3</v>
       </c>
@@ -3464,7 +3379,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Q13" s="41"/>
+      <c r="Q13" s="47"/>
       <c r="R13" s="36">
         <v>3</v>
       </c>
@@ -3485,7 +3400,7 @@
       </c>
     </row>
     <row r="14" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="36">
         <v>4</v>
       </c>
@@ -3504,7 +3419,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q14" s="41"/>
+      <c r="Q14" s="47"/>
       <c r="R14" s="36">
         <v>4</v>
       </c>
@@ -3525,7 +3440,7 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="36">
         <v>5</v>
       </c>
@@ -3544,7 +3459,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="Q15" s="41"/>
+      <c r="Q15" s="47"/>
       <c r="R15" s="36">
         <v>5</v>
       </c>
@@ -3565,7 +3480,7 @@
       </c>
     </row>
     <row r="16" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="36">
         <v>6</v>
       </c>
@@ -3593,7 +3508,7 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="Q16" s="41"/>
+      <c r="Q16" s="47"/>
       <c r="R16" s="36">
         <v>6</v>
       </c>
@@ -3626,7 +3541,7 @@
       </c>
     </row>
     <row r="17" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="37">
         <v>7</v>
       </c>
@@ -3650,7 +3565,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="42"/>
+      <c r="Q17" s="48"/>
       <c r="R17" s="37">
         <v>7</v>
       </c>
@@ -3686,7 +3601,7 @@
       </c>
     </row>
     <row r="18" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40">
+      <c r="A18" s="46">
         <v>2</v>
       </c>
       <c r="B18" s="36">
@@ -3704,7 +3619,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="40">
+      <c r="Q18" s="46">
         <v>2</v>
       </c>
       <c r="R18" s="36">
@@ -3743,7 +3658,7 @@
       </c>
     </row>
     <row r="19" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="36">
         <v>1</v>
       </c>
@@ -3771,7 +3686,7 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="Q19" s="41"/>
+      <c r="Q19" s="47"/>
       <c r="R19" s="36">
         <v>1</v>
       </c>
@@ -3792,7 +3707,7 @@
       </c>
     </row>
     <row r="20" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="36">
         <v>2</v>
       </c>
@@ -3811,7 +3726,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q20" s="41"/>
+      <c r="Q20" s="47"/>
       <c r="R20" s="36">
         <v>2</v>
       </c>
@@ -3835,7 +3750,7 @@
       </c>
     </row>
     <row r="21" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="36">
         <v>3</v>
       </c>
@@ -3854,7 +3769,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="Q21" s="41"/>
+      <c r="Q21" s="47"/>
       <c r="R21" s="36">
         <v>3</v>
       </c>
@@ -3875,7 +3790,7 @@
       </c>
     </row>
     <row r="22" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="36">
         <v>4</v>
       </c>
@@ -3894,7 +3809,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q22" s="41"/>
+      <c r="Q22" s="47"/>
       <c r="R22" s="36">
         <v>4</v>
       </c>
@@ -3915,7 +3830,7 @@
       </c>
     </row>
     <row r="23" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="36">
         <v>5</v>
       </c>
@@ -3937,7 +3852,7 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="Q23" s="41"/>
+      <c r="Q23" s="47"/>
       <c r="R23" s="36">
         <v>5</v>
       </c>
@@ -3961,7 +3876,7 @@
       </c>
     </row>
     <row r="24" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="36">
         <v>6</v>
       </c>
@@ -3983,7 +3898,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="Q24" s="41"/>
+      <c r="Q24" s="47"/>
       <c r="R24" s="36">
         <v>6</v>
       </c>
@@ -4010,7 +3925,7 @@
       </c>
     </row>
     <row r="25" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="37">
         <v>7</v>
       </c>
@@ -4034,7 +3949,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="42"/>
+      <c r="Q25" s="48"/>
       <c r="R25" s="37">
         <v>7</v>
       </c>
@@ -4070,7 +3985,7 @@
       </c>
     </row>
     <row r="26" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="40">
+      <c r="A26" s="46">
         <v>3</v>
       </c>
       <c r="B26" s="36">
@@ -4088,7 +4003,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="40">
+      <c r="Q26" s="46">
         <v>3</v>
       </c>
       <c r="R26" s="36">
@@ -4118,7 +4033,7 @@
       </c>
     </row>
     <row r="27" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="36">
         <v>1</v>
       </c>
@@ -4137,7 +4052,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q27" s="41"/>
+      <c r="Q27" s="47"/>
       <c r="R27" s="36">
         <v>1</v>
       </c>
@@ -4161,7 +4076,7 @@
       </c>
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="36">
         <v>2</v>
       </c>
@@ -4183,7 +4098,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="Q28" s="41"/>
+      <c r="Q28" s="47"/>
       <c r="R28" s="36">
         <v>2</v>
       </c>
@@ -4207,7 +4122,7 @@
       </c>
     </row>
     <row r="29" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="36">
         <v>3</v>
       </c>
@@ -4229,7 +4144,7 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="Q29" s="41"/>
+      <c r="Q29" s="47"/>
       <c r="R29" s="36">
         <v>3</v>
       </c>
@@ -4253,7 +4168,7 @@
       </c>
     </row>
     <row r="30" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="36">
         <v>4</v>
       </c>
@@ -4281,7 +4196,7 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="Q30" s="41"/>
+      <c r="Q30" s="47"/>
       <c r="R30" s="36">
         <v>4</v>
       </c>
@@ -4314,7 +4229,7 @@
       </c>
     </row>
     <row r="31" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="36">
         <v>5</v>
       </c>
@@ -4333,7 +4248,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q31" s="41"/>
+      <c r="Q31" s="47"/>
       <c r="R31" s="36">
         <v>5</v>
       </c>
@@ -4354,7 +4269,7 @@
       </c>
     </row>
     <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="36">
         <v>6</v>
       </c>
@@ -4373,7 +4288,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q32" s="41"/>
+      <c r="Q32" s="47"/>
       <c r="R32" s="36">
         <v>6</v>
       </c>
@@ -4394,7 +4309,7 @@
       </c>
     </row>
     <row r="33" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="37">
         <v>7</v>
       </c>
@@ -4418,7 +4333,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="42"/>
+      <c r="Q33" s="48"/>
       <c r="R33" s="37">
         <v>7</v>
       </c>
@@ -4454,7 +4369,7 @@
       </c>
     </row>
     <row r="34" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="40">
+      <c r="A34" s="46">
         <v>4</v>
       </c>
       <c r="B34" s="36">
@@ -4472,7 +4387,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q34" s="40">
+      <c r="Q34" s="46">
         <v>4</v>
       </c>
       <c r="R34" s="36">
@@ -4511,7 +4426,7 @@
       </c>
     </row>
     <row r="35" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="36">
         <v>1</v>
       </c>
@@ -4539,7 +4454,7 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="Q35" s="41"/>
+      <c r="Q35" s="47"/>
       <c r="R35" s="36">
         <v>1</v>
       </c>
@@ -4560,7 +4475,7 @@
       </c>
     </row>
     <row r="36" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
+      <c r="A36" s="47"/>
       <c r="B36" s="36">
         <v>2</v>
       </c>
@@ -4579,7 +4494,7 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="Q36" s="41"/>
+      <c r="Q36" s="47"/>
       <c r="R36" s="36">
         <v>2</v>
       </c>
@@ -4609,7 +4524,7 @@
       </c>
     </row>
     <row r="37" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
+      <c r="A37" s="47"/>
       <c r="B37" s="36">
         <v>3</v>
       </c>
@@ -4634,7 +4549,7 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="Q37" s="41"/>
+      <c r="Q37" s="47"/>
       <c r="R37" s="36">
         <v>3</v>
       </c>
@@ -4655,7 +4570,7 @@
       </c>
     </row>
     <row r="38" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
+      <c r="A38" s="47"/>
       <c r="B38" s="36">
         <v>4</v>
       </c>
@@ -4674,7 +4589,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Q38" s="41"/>
+      <c r="Q38" s="47"/>
       <c r="R38" s="36">
         <v>4</v>
       </c>
@@ -4698,7 +4613,7 @@
       </c>
     </row>
     <row r="39" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
+      <c r="A39" s="47"/>
       <c r="B39" s="36">
         <v>5</v>
       </c>
@@ -4720,7 +4635,7 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="Q39" s="41"/>
+      <c r="Q39" s="47"/>
       <c r="R39" s="36">
         <v>5</v>
       </c>
@@ -4744,7 +4659,7 @@
       </c>
     </row>
     <row r="40" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
+      <c r="A40" s="47"/>
       <c r="B40" s="36">
         <v>6</v>
       </c>
@@ -4766,7 +4681,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="Q40" s="41"/>
+      <c r="Q40" s="47"/>
       <c r="R40" s="36">
         <v>6</v>
       </c>
@@ -4793,7 +4708,7 @@
       </c>
     </row>
     <row r="41" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
+      <c r="A41" s="48"/>
       <c r="B41" s="37">
         <v>7</v>
       </c>
@@ -4817,7 +4732,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q41" s="42"/>
+      <c r="Q41" s="48"/>
       <c r="R41" s="37">
         <v>7</v>
       </c>
@@ -4853,7 +4768,7 @@
       </c>
     </row>
     <row r="42" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="40">
+      <c r="A42" s="46">
         <v>5</v>
       </c>
       <c r="B42" s="36">
@@ -4871,7 +4786,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q42" s="40">
+      <c r="Q42" s="46">
         <v>5</v>
       </c>
       <c r="R42" s="36">
@@ -4901,7 +4816,7 @@
       </c>
     </row>
     <row r="43" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
+      <c r="A43" s="47"/>
       <c r="B43" s="36">
         <v>1</v>
       </c>
@@ -4923,7 +4838,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="Q43" s="41"/>
+      <c r="Q43" s="47"/>
       <c r="R43" s="36">
         <v>1</v>
       </c>
@@ -4944,7 +4859,7 @@
       </c>
     </row>
     <row r="44" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
+      <c r="A44" s="47"/>
       <c r="B44" s="36">
         <v>2</v>
       </c>
@@ -4963,7 +4878,7 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="Q44" s="41"/>
+      <c r="Q44" s="47"/>
       <c r="R44" s="36">
         <v>2</v>
       </c>
@@ -4987,7 +4902,7 @@
       </c>
     </row>
     <row r="45" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
+      <c r="A45" s="47"/>
       <c r="B45" s="36">
         <v>3</v>
       </c>
@@ -5012,7 +4927,7 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="Q45" s="41"/>
+      <c r="Q45" s="47"/>
       <c r="R45" s="36">
         <v>3</v>
       </c>
@@ -5042,7 +4957,7 @@
       </c>
     </row>
     <row r="46" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="41"/>
+      <c r="A46" s="47"/>
       <c r="B46" s="36">
         <v>4</v>
       </c>
@@ -5064,7 +4979,7 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="Q46" s="41"/>
+      <c r="Q46" s="47"/>
       <c r="R46" s="36">
         <v>4</v>
       </c>
@@ -5088,7 +5003,7 @@
       </c>
     </row>
     <row r="47" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="41"/>
+      <c r="A47" s="47"/>
       <c r="B47" s="36">
         <v>5</v>
       </c>
@@ -5110,7 +5025,7 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="Q47" s="41"/>
+      <c r="Q47" s="47"/>
       <c r="R47" s="36">
         <v>5</v>
       </c>
@@ -5134,7 +5049,7 @@
       </c>
     </row>
     <row r="48" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
+      <c r="A48" s="47"/>
       <c r="B48" s="36">
         <v>6</v>
       </c>
@@ -5156,7 +5071,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="Q48" s="41"/>
+      <c r="Q48" s="47"/>
       <c r="R48" s="36">
         <v>6</v>
       </c>
@@ -5183,7 +5098,7 @@
       </c>
     </row>
     <row r="49" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
+      <c r="A49" s="48"/>
       <c r="B49" s="37">
         <v>7</v>
       </c>
@@ -5207,7 +5122,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q49" s="42"/>
+      <c r="Q49" s="48"/>
       <c r="R49" s="37">
         <v>7</v>
       </c>
@@ -5243,7 +5158,7 @@
       </c>
     </row>
     <row r="50" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="40">
+      <c r="A50" s="46">
         <v>6</v>
       </c>
       <c r="B50" s="36">
@@ -5261,7 +5176,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q50" s="40">
+      <c r="Q50" s="46">
         <v>6</v>
       </c>
       <c r="R50" s="36">
@@ -5300,7 +5215,7 @@
       </c>
     </row>
     <row r="51" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="41"/>
+      <c r="A51" s="47"/>
       <c r="B51" s="36">
         <v>1</v>
       </c>
@@ -5328,7 +5243,7 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="Q51" s="41"/>
+      <c r="Q51" s="47"/>
       <c r="R51" s="36">
         <v>1</v>
       </c>
@@ -5352,7 +5267,7 @@
       </c>
     </row>
     <row r="52" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="41"/>
+      <c r="A52" s="47"/>
       <c r="B52" s="36">
         <v>2</v>
       </c>
@@ -5371,7 +5286,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Q52" s="41"/>
+      <c r="Q52" s="47"/>
       <c r="R52" s="36">
         <v>2</v>
       </c>
@@ -5392,7 +5307,7 @@
       </c>
     </row>
     <row r="53" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="41"/>
+      <c r="A53" s="47"/>
       <c r="B53" s="36">
         <v>3</v>
       </c>
@@ -5411,7 +5326,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q53" s="41"/>
+      <c r="Q53" s="47"/>
       <c r="R53" s="36">
         <v>3</v>
       </c>
@@ -5435,7 +5350,7 @@
       </c>
     </row>
     <row r="54" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="41"/>
+      <c r="A54" s="47"/>
       <c r="B54" s="36">
         <v>4</v>
       </c>
@@ -5454,7 +5369,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="Q54" s="41"/>
+      <c r="Q54" s="47"/>
       <c r="R54" s="36">
         <v>4</v>
       </c>
@@ -5475,7 +5390,7 @@
       </c>
     </row>
     <row r="55" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="41"/>
+      <c r="A55" s="47"/>
       <c r="B55" s="36">
         <v>5</v>
       </c>
@@ -5494,7 +5409,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="Q55" s="41"/>
+      <c r="Q55" s="47"/>
       <c r="R55" s="36">
         <v>5</v>
       </c>
@@ -5515,7 +5430,7 @@
       </c>
     </row>
     <row r="56" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="41"/>
+      <c r="A56" s="47"/>
       <c r="B56" s="36">
         <v>6</v>
       </c>
@@ -5534,7 +5449,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="Q56" s="41"/>
+      <c r="Q56" s="47"/>
       <c r="R56" s="36">
         <v>6</v>
       </c>
@@ -5555,7 +5470,7 @@
       </c>
     </row>
     <row r="57" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="42"/>
+      <c r="A57" s="48"/>
       <c r="B57" s="37">
         <v>7</v>
       </c>
@@ -5579,7 +5494,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q57" s="42"/>
+      <c r="Q57" s="48"/>
       <c r="R57" s="37">
         <v>7</v>
       </c>
@@ -5615,7 +5530,7 @@
       </c>
     </row>
     <row r="58" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="40">
+      <c r="A58" s="46">
         <v>7</v>
       </c>
       <c r="B58" s="36">
@@ -5633,7 +5548,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q58" s="40">
+      <c r="Q58" s="46">
         <v>7</v>
       </c>
       <c r="R58" s="36">
@@ -5666,7 +5581,7 @@
       </c>
     </row>
     <row r="59" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="41"/>
+      <c r="A59" s="47"/>
       <c r="B59" s="36">
         <v>1</v>
       </c>
@@ -5688,7 +5603,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="Q59" s="41"/>
+      <c r="Q59" s="47"/>
       <c r="R59" s="36">
         <v>1</v>
       </c>
@@ -5712,7 +5627,7 @@
       </c>
     </row>
     <row r="60" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="41"/>
+      <c r="A60" s="47"/>
       <c r="B60" s="36">
         <v>2</v>
       </c>
@@ -5734,7 +5649,7 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="Q60" s="41"/>
+      <c r="Q60" s="47"/>
       <c r="R60" s="36">
         <v>2</v>
       </c>
@@ -5761,7 +5676,7 @@
       </c>
     </row>
     <row r="61" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="41"/>
+      <c r="A61" s="47"/>
       <c r="B61" s="36">
         <v>3</v>
       </c>
@@ -5783,7 +5698,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="Q61" s="41"/>
+      <c r="Q61" s="47"/>
       <c r="R61" s="36">
         <v>3</v>
       </c>
@@ -5810,7 +5725,7 @@
       </c>
     </row>
     <row r="62" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="41"/>
+      <c r="A62" s="47"/>
       <c r="B62" s="36">
         <v>4</v>
       </c>
@@ -5832,7 +5747,7 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="Q62" s="41"/>
+      <c r="Q62" s="47"/>
       <c r="R62" s="36">
         <v>4</v>
       </c>
@@ -5859,7 +5774,7 @@
       </c>
     </row>
     <row r="63" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="41"/>
+      <c r="A63" s="47"/>
       <c r="B63" s="36">
         <v>5</v>
       </c>
@@ -5881,7 +5796,7 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="Q63" s="41"/>
+      <c r="Q63" s="47"/>
       <c r="R63" s="36">
         <v>5</v>
       </c>
@@ -5905,7 +5820,7 @@
       </c>
     </row>
     <row r="64" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="41"/>
+      <c r="A64" s="47"/>
       <c r="B64" s="36">
         <v>6</v>
       </c>
@@ -5927,7 +5842,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="Q64" s="41"/>
+      <c r="Q64" s="47"/>
       <c r="R64" s="36">
         <v>6</v>
       </c>
@@ -5954,7 +5869,7 @@
       </c>
     </row>
     <row r="65" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="42"/>
+      <c r="A65" s="48"/>
       <c r="B65" s="37">
         <v>7</v>
       </c>
@@ -5978,7 +5893,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q65" s="42"/>
+      <c r="Q65" s="48"/>
       <c r="R65" s="37">
         <v>7</v>
       </c>
@@ -6059,10 +5974,10 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
         <v>20</v>
@@ -6095,7 +6010,7 @@
         <v>27</v>
       </c>
       <c r="O1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -6138,7 +6053,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -6276,8 +6191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B0B658-2EBB-4F68-A170-FD0A4D0F2FFC}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6291,48 +6206,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="46">
+      <c r="A1" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="43">
         <v>330</v>
       </c>
-      <c r="C1" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="48">
+      <c r="C1" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="45">
         <v>5</v>
       </c>
-      <c r="F1" s="49" t="s">
-        <v>66</v>
+      <c r="F1" s="44" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="43" t="s">
-        <v>83</v>
+      <c r="A2" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B3">
         <v>3.16</v>
@@ -6340,22 +6255,22 @@
       <c r="C3">
         <v>5.5</v>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="41">
         <f>C3/270*1000</f>
         <v>20.370370370370374</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="41">
         <f t="shared" ref="E3:E15" si="0">B3/D3*1000</f>
         <v>155.1272727272727</v>
       </c>
-      <c r="F3" s="44">
+      <c r="F3" s="41">
         <f>($E$1-B3)/D3*1000</f>
         <v>90.3272727272727</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B4">
         <v>2.0299999999999998</v>
@@ -6363,22 +6278,22 @@
       <c r="C4">
         <v>5.53</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="41">
         <f t="shared" ref="D4:D5" si="1">C4/270*1000</f>
         <v>20.481481481481481</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="41">
         <f t="shared" si="0"/>
         <v>99.113924050632903</v>
       </c>
-      <c r="F4" s="44">
+      <c r="F4" s="41">
         <f t="shared" ref="F4:F15" si="2">($E$1-B4)/D4*1000</f>
         <v>145.00904159132008</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B5">
         <v>2.0699999999999998</v>
@@ -6386,22 +6301,22 @@
       <c r="C5">
         <v>5.5</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="41">
         <f t="shared" si="1"/>
         <v>20.370370370370374</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="41">
         <f t="shared" si="0"/>
         <v>101.61818181818178</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="41">
         <f t="shared" si="2"/>
         <v>143.83636363636361</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
-        <v>85</v>
+      <c r="A6" s="49" t="s">
+        <v>67</v>
       </c>
       <c r="B6">
         <v>2.2000000000000002</v>
@@ -6409,43 +6324,43 @@
       <c r="C6">
         <v>6.5</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="41">
         <f t="shared" ref="D6:D7" si="3">C6/330*1000</f>
         <v>19.696969696969695</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="41">
         <f t="shared" si="0"/>
         <v>111.69230769230772</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="41">
         <f t="shared" si="2"/>
         <v>142.15384615384616</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
+      <c r="A7" s="50"/>
       <c r="B7">
         <v>1.2</v>
       </c>
       <c r="C7">
         <v>6.7</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="41">
         <f t="shared" si="3"/>
         <v>20.303030303030301</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="41">
         <f t="shared" si="0"/>
         <v>59.104477611940297</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="41">
         <f t="shared" si="2"/>
         <v>187.16417910447763</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -6453,113 +6368,113 @@
       <c r="C8">
         <v>0.4</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="41">
         <f>C8/330*1000</f>
         <v>1.2121212121212122</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="41">
         <f t="shared" si="0"/>
         <v>4125</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="41">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="D9" s="44">
-        <f t="shared" ref="D4:D15" si="4">C9/$B$1*1000</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="44" t="e">
+      <c r="D9" s="41">
+        <f t="shared" ref="D9:D15" si="4">C9/$B$1*1000</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="41" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F9" s="44" t="e">
+      <c r="F9" s="41" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="D10" s="44">
+      <c r="D10" s="41">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E10" s="44" t="e">
+      <c r="E10" s="41" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F10" s="44" t="e">
+      <c r="F10" s="41" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="D11" s="44">
+      <c r="D11" s="41">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E11" s="44" t="e">
+      <c r="E11" s="41" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F11" s="44" t="e">
+      <c r="F11" s="41" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="D12" s="44">
+      <c r="D12" s="41">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E12" s="44" t="e">
+      <c r="E12" s="41" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F12" s="44" t="e">
+      <c r="F12" s="41" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="D13" s="44">
+      <c r="D13" s="41">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E13" s="44" t="e">
+      <c r="E13" s="41" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F13" s="44" t="e">
+      <c r="F13" s="41" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="D14" s="44">
+      <c r="D14" s="41">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E14" s="44" t="e">
+      <c r="E14" s="41" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F14" s="44" t="e">
+      <c r="F14" s="41" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="D15" s="44">
+      <c r="D15" s="41">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E15" s="44" t="e">
+      <c r="E15" s="41" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F15" s="44" t="e">
+      <c r="F15" s="41" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>

--- a/Documents/Implementation.xlsx
+++ b/Documents/Implementation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Androvil\Visual Studio 2013\Projects\HomeAutomation\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5115FB07-10EC-45D0-8C3D-FF4D93A5ABE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E43D59-3CF0-4D1A-99C5-F3B570B17A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-480" windowWidth="29040" windowHeight="15525" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15075" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="Custom Chars" sheetId="4" r:id="rId3"/>
     <sheet name="Expander" sheetId="3" r:id="rId4"/>
     <sheet name="LED" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="89">
   <si>
     <t>:</t>
   </si>
@@ -359,15 +360,45 @@
   <si>
     <t>https://tashev-galving.com/cat/200383/kabeli-i-provodnitsi?filter.115.%D0%A1%D0%B5%D1%87%D0%B5%D0%BD%D0%B8%D0%B5+%D0%BD%D0%B0+%D0%BF%D1%80%D0%BE%D0%B2%D0%BE%D0%B4%D0%BD%D0%B8%D0%BA=1.5&amp;filter.73.%D0%91%D1%80%D0%BE%D0%B9+%D0%B6%D0%B8%D0%BB%D0%B0=4&amp;search=%D1%81%D0%B2%D1%82D0%BE%D0%B9+%D0%B6%D0%B8%D0%BB%D0%B0=3&amp;search=%D1%81%D0%B2%D1%82</t>
   </si>
+  <si>
+    <t>Time set</t>
+  </si>
+  <si>
+    <t>Bytes avilable</t>
+  </si>
+  <si>
+    <t>HardwareManager</t>
+  </si>
+  <si>
+    <t>SetupToolsAndServices</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
+  <si>
+    <t>GC</t>
+  </si>
+  <si>
+    <t>ReloadConfig</t>
+  </si>
+  <si>
+    <t>_autoTurnOffPumpService.Init()</t>
+  </si>
+  <si>
+    <t>UiManager</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -415,8 +446,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -432,6 +470,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -613,11 +656,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -722,6 +766,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="15" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -737,11 +783,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="15" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -803,7 +854,7 @@
                   <a14:compatExt spid="_x0000_s3073"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F1020FB-56EC-C3E5-FEB3-0892EE40FC58}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000010C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -824,23 +875,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -868,7 +906,7 @@
             <xdr:cNvPr id="5" name="TextBox 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1741AA3-6A8E-1AC7-28AB-853B97F440E6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1111,7 +1149,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11A2A66A-895E-06C6-B48A-BA5ABB0EAA3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1439,8 +1477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:Y31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1922,7 +1960,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>22</v>
       </c>
@@ -1938,19 +1976,19 @@
       <c r="F17" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="53">
         <v>2</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="53">
         <v>3</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="53">
         <v>4</v>
       </c>
-      <c r="K17" s="7"/>
+      <c r="K17" s="53"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
@@ -1974,7 +2012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>23</v>
       </c>
@@ -1990,18 +2028,19 @@
       <c r="F18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1" t="s">
+      <c r="G18" s="54">
+        <v>1</v>
+      </c>
+      <c r="H18" s="54">
+        <v>0</v>
+      </c>
+      <c r="I18" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="54">
         <v>2</v>
       </c>
+      <c r="K18" s="54"/>
       <c r="S18" s="1" t="s">
         <v>19</v>
       </c>
@@ -2021,7 +2060,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>29</v>
       </c>
@@ -2037,15 +2076,17 @@
       <c r="F19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1">
+      <c r="G19" s="54">
+        <v>1</v>
+      </c>
+      <c r="H19" s="54">
         <v>2</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="54">
         <v>3</v>
       </c>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
       <c r="L19" s="1" t="s">
         <v>30</v>
       </c>
@@ -2055,15 +2096,16 @@
       <c r="N19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O19" s="1">
-        <v>1</v>
-      </c>
-      <c r="P19" s="1">
+      <c r="O19" s="54">
+        <v>1</v>
+      </c>
+      <c r="P19" s="54">
         <v>2</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="54">
         <v>3</v>
       </c>
+      <c r="R19" s="54"/>
       <c r="S19" s="1" t="s">
         <v>12</v>
       </c>
@@ -2550,11 +2592,11 @@
       <c r="I12">
         <v>0.09</v>
       </c>
-      <c r="L12" s="51">
+      <c r="L12" s="46">
         <f>(N12+O12)*M12/O12</f>
         <v>4.95</v>
       </c>
-      <c r="M12" s="52">
+      <c r="M12" s="47">
         <v>3.3</v>
       </c>
       <c r="N12">
@@ -2577,10 +2619,10 @@
       <c r="I13">
         <v>0.03</v>
       </c>
-      <c r="L13" s="52">
+      <c r="L13" s="47">
         <v>5</v>
       </c>
-      <c r="M13" s="51">
+      <c r="M13" s="46">
         <f>O13*L13/(O13+N13)</f>
         <v>3.3333333333333335</v>
       </c>
@@ -2604,10 +2646,10 @@
       <c r="I14">
         <v>0.04</v>
       </c>
-      <c r="L14" s="52">
+      <c r="L14" s="47">
         <v>5</v>
       </c>
-      <c r="M14" s="52">
+      <c r="M14" s="47">
         <v>3.3</v>
       </c>
       <c r="N14" s="41">
@@ -2631,10 +2673,10 @@
       <c r="I15">
         <v>0.06</v>
       </c>
-      <c r="L15" s="52">
+      <c r="L15" s="47">
         <v>5</v>
       </c>
-      <c r="M15" s="52">
+      <c r="M15" s="47">
         <v>3.3</v>
       </c>
       <c r="N15">
@@ -2798,7 +2840,7 @@
       </c>
     </row>
     <row r="2" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46">
+      <c r="A2" s="48">
         <v>0</v>
       </c>
       <c r="B2" s="36">
@@ -2816,7 +2858,7 @@
         <f>BIN2DEC(L2)</f>
         <v>0</v>
       </c>
-      <c r="Q2" s="46">
+      <c r="Q2" s="48">
         <v>0</v>
       </c>
       <c r="R2" s="36">
@@ -2850,7 +2892,7 @@
       </c>
     </row>
     <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="36">
         <v>1</v>
       </c>
@@ -2869,7 +2911,7 @@
         <f t="shared" ref="M3:M65" si="2">BIN2DEC(L3)</f>
         <v>4</v>
       </c>
-      <c r="Q3" s="47"/>
+      <c r="Q3" s="49"/>
       <c r="R3" s="36">
         <v>1</v>
       </c>
@@ -2900,7 +2942,7 @@
       </c>
     </row>
     <row r="4" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="36">
         <v>2</v>
       </c>
@@ -2922,7 +2964,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="Q4" s="47"/>
+      <c r="Q4" s="49"/>
       <c r="R4" s="36">
         <v>2</v>
       </c>
@@ -2950,7 +2992,7 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="36">
         <v>3</v>
       </c>
@@ -2969,7 +3011,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q5" s="47"/>
+      <c r="Q5" s="49"/>
       <c r="R5" s="36">
         <v>3</v>
       </c>
@@ -3000,7 +3042,7 @@
       </c>
     </row>
     <row r="6" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="36">
         <v>4</v>
       </c>
@@ -3019,7 +3061,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q6" s="47"/>
+      <c r="Q6" s="49"/>
       <c r="R6" s="36">
         <v>4</v>
       </c>
@@ -3047,7 +3089,7 @@
       </c>
     </row>
     <row r="7" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="36">
         <v>5</v>
       </c>
@@ -3066,7 +3108,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q7" s="47"/>
+      <c r="Q7" s="49"/>
       <c r="R7" s="36">
         <v>5</v>
       </c>
@@ -3094,7 +3136,7 @@
       </c>
     </row>
     <row r="8" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="36">
         <v>6</v>
       </c>
@@ -3119,7 +3161,7 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="Q8" s="47"/>
+      <c r="Q8" s="49"/>
       <c r="R8" s="36">
         <v>6</v>
       </c>
@@ -3153,7 +3195,7 @@
       </c>
     </row>
     <row r="9" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="37">
         <v>7</v>
       </c>
@@ -3177,7 +3219,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="48"/>
+      <c r="Q9" s="50"/>
       <c r="R9" s="37">
         <v>7</v>
       </c>
@@ -3220,7 +3262,7 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46">
+      <c r="A10" s="48">
         <v>1</v>
       </c>
       <c r="B10" s="36">
@@ -3238,7 +3280,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="46">
+      <c r="Q10" s="48">
         <v>1</v>
       </c>
       <c r="R10" s="36">
@@ -3271,7 +3313,7 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="36">
         <v>1</v>
       </c>
@@ -3293,7 +3335,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="Q11" s="47"/>
+      <c r="Q11" s="49"/>
       <c r="R11" s="36">
         <v>1</v>
       </c>
@@ -3317,7 +3359,7 @@
       </c>
     </row>
     <row r="12" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="36">
         <v>2</v>
       </c>
@@ -3339,7 +3381,7 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="Q12" s="47"/>
+      <c r="Q12" s="49"/>
       <c r="R12" s="36">
         <v>2</v>
       </c>
@@ -3360,7 +3402,7 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="36">
         <v>3</v>
       </c>
@@ -3379,7 +3421,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Q13" s="47"/>
+      <c r="Q13" s="49"/>
       <c r="R13" s="36">
         <v>3</v>
       </c>
@@ -3400,7 +3442,7 @@
       </c>
     </row>
     <row r="14" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="36">
         <v>4</v>
       </c>
@@ -3419,7 +3461,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q14" s="47"/>
+      <c r="Q14" s="49"/>
       <c r="R14" s="36">
         <v>4</v>
       </c>
@@ -3440,7 +3482,7 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="36">
         <v>5</v>
       </c>
@@ -3459,7 +3501,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="Q15" s="47"/>
+      <c r="Q15" s="49"/>
       <c r="R15" s="36">
         <v>5</v>
       </c>
@@ -3480,7 +3522,7 @@
       </c>
     </row>
     <row r="16" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="36">
         <v>6</v>
       </c>
@@ -3508,7 +3550,7 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="Q16" s="47"/>
+      <c r="Q16" s="49"/>
       <c r="R16" s="36">
         <v>6</v>
       </c>
@@ -3541,7 +3583,7 @@
       </c>
     </row>
     <row r="17" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="37">
         <v>7</v>
       </c>
@@ -3565,7 +3607,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="48"/>
+      <c r="Q17" s="50"/>
       <c r="R17" s="37">
         <v>7</v>
       </c>
@@ -3601,7 +3643,7 @@
       </c>
     </row>
     <row r="18" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="46">
+      <c r="A18" s="48">
         <v>2</v>
       </c>
       <c r="B18" s="36">
@@ -3619,7 +3661,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="46">
+      <c r="Q18" s="48">
         <v>2</v>
       </c>
       <c r="R18" s="36">
@@ -3658,7 +3700,7 @@
       </c>
     </row>
     <row r="19" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="36">
         <v>1</v>
       </c>
@@ -3686,7 +3728,7 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="Q19" s="47"/>
+      <c r="Q19" s="49"/>
       <c r="R19" s="36">
         <v>1</v>
       </c>
@@ -3707,7 +3749,7 @@
       </c>
     </row>
     <row r="20" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
+      <c r="A20" s="49"/>
       <c r="B20" s="36">
         <v>2</v>
       </c>
@@ -3726,7 +3768,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q20" s="47"/>
+      <c r="Q20" s="49"/>
       <c r="R20" s="36">
         <v>2</v>
       </c>
@@ -3750,7 +3792,7 @@
       </c>
     </row>
     <row r="21" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="36">
         <v>3</v>
       </c>
@@ -3769,7 +3811,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="Q21" s="47"/>
+      <c r="Q21" s="49"/>
       <c r="R21" s="36">
         <v>3</v>
       </c>
@@ -3790,7 +3832,7 @@
       </c>
     </row>
     <row r="22" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
+      <c r="A22" s="49"/>
       <c r="B22" s="36">
         <v>4</v>
       </c>
@@ -3809,7 +3851,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q22" s="47"/>
+      <c r="Q22" s="49"/>
       <c r="R22" s="36">
         <v>4</v>
       </c>
@@ -3830,7 +3872,7 @@
       </c>
     </row>
     <row r="23" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
+      <c r="A23" s="49"/>
       <c r="B23" s="36">
         <v>5</v>
       </c>
@@ -3852,7 +3894,7 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="Q23" s="47"/>
+      <c r="Q23" s="49"/>
       <c r="R23" s="36">
         <v>5</v>
       </c>
@@ -3876,7 +3918,7 @@
       </c>
     </row>
     <row r="24" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="36">
         <v>6</v>
       </c>
@@ -3898,7 +3940,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="Q24" s="47"/>
+      <c r="Q24" s="49"/>
       <c r="R24" s="36">
         <v>6</v>
       </c>
@@ -3925,7 +3967,7 @@
       </c>
     </row>
     <row r="25" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="37">
         <v>7</v>
       </c>
@@ -3949,7 +3991,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="48"/>
+      <c r="Q25" s="50"/>
       <c r="R25" s="37">
         <v>7</v>
       </c>
@@ -3985,7 +4027,7 @@
       </c>
     </row>
     <row r="26" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="46">
+      <c r="A26" s="48">
         <v>3</v>
       </c>
       <c r="B26" s="36">
@@ -4003,7 +4045,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="46">
+      <c r="Q26" s="48">
         <v>3</v>
       </c>
       <c r="R26" s="36">
@@ -4033,7 +4075,7 @@
       </c>
     </row>
     <row r="27" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="47"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="36">
         <v>1</v>
       </c>
@@ -4052,7 +4094,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q27" s="47"/>
+      <c r="Q27" s="49"/>
       <c r="R27" s="36">
         <v>1</v>
       </c>
@@ -4076,7 +4118,7 @@
       </c>
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
+      <c r="A28" s="49"/>
       <c r="B28" s="36">
         <v>2</v>
       </c>
@@ -4098,7 +4140,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="Q28" s="47"/>
+      <c r="Q28" s="49"/>
       <c r="R28" s="36">
         <v>2</v>
       </c>
@@ -4122,7 +4164,7 @@
       </c>
     </row>
     <row r="29" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
+      <c r="A29" s="49"/>
       <c r="B29" s="36">
         <v>3</v>
       </c>
@@ -4144,7 +4186,7 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="Q29" s="47"/>
+      <c r="Q29" s="49"/>
       <c r="R29" s="36">
         <v>3</v>
       </c>
@@ -4168,7 +4210,7 @@
       </c>
     </row>
     <row r="30" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
+      <c r="A30" s="49"/>
       <c r="B30" s="36">
         <v>4</v>
       </c>
@@ -4196,7 +4238,7 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="Q30" s="47"/>
+      <c r="Q30" s="49"/>
       <c r="R30" s="36">
         <v>4</v>
       </c>
@@ -4229,7 +4271,7 @@
       </c>
     </row>
     <row r="31" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
+      <c r="A31" s="49"/>
       <c r="B31" s="36">
         <v>5</v>
       </c>
@@ -4248,7 +4290,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q31" s="47"/>
+      <c r="Q31" s="49"/>
       <c r="R31" s="36">
         <v>5</v>
       </c>
@@ -4269,7 +4311,7 @@
       </c>
     </row>
     <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
+      <c r="A32" s="49"/>
       <c r="B32" s="36">
         <v>6</v>
       </c>
@@ -4288,7 +4330,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q32" s="47"/>
+      <c r="Q32" s="49"/>
       <c r="R32" s="36">
         <v>6</v>
       </c>
@@ -4309,7 +4351,7 @@
       </c>
     </row>
     <row r="33" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
+      <c r="A33" s="50"/>
       <c r="B33" s="37">
         <v>7</v>
       </c>
@@ -4333,7 +4375,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="48"/>
+      <c r="Q33" s="50"/>
       <c r="R33" s="37">
         <v>7</v>
       </c>
@@ -4369,7 +4411,7 @@
       </c>
     </row>
     <row r="34" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="46">
+      <c r="A34" s="48">
         <v>4</v>
       </c>
       <c r="B34" s="36">
@@ -4387,7 +4429,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q34" s="46">
+      <c r="Q34" s="48">
         <v>4</v>
       </c>
       <c r="R34" s="36">
@@ -4426,7 +4468,7 @@
       </c>
     </row>
     <row r="35" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
+      <c r="A35" s="49"/>
       <c r="B35" s="36">
         <v>1</v>
       </c>
@@ -4454,7 +4496,7 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="Q35" s="47"/>
+      <c r="Q35" s="49"/>
       <c r="R35" s="36">
         <v>1</v>
       </c>
@@ -4475,7 +4517,7 @@
       </c>
     </row>
     <row r="36" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
+      <c r="A36" s="49"/>
       <c r="B36" s="36">
         <v>2</v>
       </c>
@@ -4494,7 +4536,7 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="Q36" s="47"/>
+      <c r="Q36" s="49"/>
       <c r="R36" s="36">
         <v>2</v>
       </c>
@@ -4524,7 +4566,7 @@
       </c>
     </row>
     <row r="37" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
+      <c r="A37" s="49"/>
       <c r="B37" s="36">
         <v>3</v>
       </c>
@@ -4549,7 +4591,7 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="Q37" s="47"/>
+      <c r="Q37" s="49"/>
       <c r="R37" s="36">
         <v>3</v>
       </c>
@@ -4570,7 +4612,7 @@
       </c>
     </row>
     <row r="38" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="47"/>
+      <c r="A38" s="49"/>
       <c r="B38" s="36">
         <v>4</v>
       </c>
@@ -4589,7 +4631,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Q38" s="47"/>
+      <c r="Q38" s="49"/>
       <c r="R38" s="36">
         <v>4</v>
       </c>
@@ -4613,7 +4655,7 @@
       </c>
     </row>
     <row r="39" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="47"/>
+      <c r="A39" s="49"/>
       <c r="B39" s="36">
         <v>5</v>
       </c>
@@ -4635,7 +4677,7 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="Q39" s="47"/>
+      <c r="Q39" s="49"/>
       <c r="R39" s="36">
         <v>5</v>
       </c>
@@ -4659,7 +4701,7 @@
       </c>
     </row>
     <row r="40" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
+      <c r="A40" s="49"/>
       <c r="B40" s="36">
         <v>6</v>
       </c>
@@ -4681,7 +4723,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="Q40" s="47"/>
+      <c r="Q40" s="49"/>
       <c r="R40" s="36">
         <v>6</v>
       </c>
@@ -4708,7 +4750,7 @@
       </c>
     </row>
     <row r="41" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="48"/>
+      <c r="A41" s="50"/>
       <c r="B41" s="37">
         <v>7</v>
       </c>
@@ -4732,7 +4774,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q41" s="48"/>
+      <c r="Q41" s="50"/>
       <c r="R41" s="37">
         <v>7</v>
       </c>
@@ -4768,7 +4810,7 @@
       </c>
     </row>
     <row r="42" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="46">
+      <c r="A42" s="48">
         <v>5</v>
       </c>
       <c r="B42" s="36">
@@ -4786,7 +4828,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q42" s="46">
+      <c r="Q42" s="48">
         <v>5</v>
       </c>
       <c r="R42" s="36">
@@ -4816,7 +4858,7 @@
       </c>
     </row>
     <row r="43" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="47"/>
+      <c r="A43" s="49"/>
       <c r="B43" s="36">
         <v>1</v>
       </c>
@@ -4838,7 +4880,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="Q43" s="47"/>
+      <c r="Q43" s="49"/>
       <c r="R43" s="36">
         <v>1</v>
       </c>
@@ -4859,7 +4901,7 @@
       </c>
     </row>
     <row r="44" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="47"/>
+      <c r="A44" s="49"/>
       <c r="B44" s="36">
         <v>2</v>
       </c>
@@ -4878,7 +4920,7 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="Q44" s="47"/>
+      <c r="Q44" s="49"/>
       <c r="R44" s="36">
         <v>2</v>
       </c>
@@ -4902,7 +4944,7 @@
       </c>
     </row>
     <row r="45" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="47"/>
+      <c r="A45" s="49"/>
       <c r="B45" s="36">
         <v>3</v>
       </c>
@@ -4927,7 +4969,7 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="Q45" s="47"/>
+      <c r="Q45" s="49"/>
       <c r="R45" s="36">
         <v>3</v>
       </c>
@@ -4957,7 +4999,7 @@
       </c>
     </row>
     <row r="46" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="47"/>
+      <c r="A46" s="49"/>
       <c r="B46" s="36">
         <v>4</v>
       </c>
@@ -4979,7 +5021,7 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="Q46" s="47"/>
+      <c r="Q46" s="49"/>
       <c r="R46" s="36">
         <v>4</v>
       </c>
@@ -5003,7 +5045,7 @@
       </c>
     </row>
     <row r="47" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="47"/>
+      <c r="A47" s="49"/>
       <c r="B47" s="36">
         <v>5</v>
       </c>
@@ -5025,7 +5067,7 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="Q47" s="47"/>
+      <c r="Q47" s="49"/>
       <c r="R47" s="36">
         <v>5</v>
       </c>
@@ -5049,7 +5091,7 @@
       </c>
     </row>
     <row r="48" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="47"/>
+      <c r="A48" s="49"/>
       <c r="B48" s="36">
         <v>6</v>
       </c>
@@ -5071,7 +5113,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="Q48" s="47"/>
+      <c r="Q48" s="49"/>
       <c r="R48" s="36">
         <v>6</v>
       </c>
@@ -5098,7 +5140,7 @@
       </c>
     </row>
     <row r="49" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="48"/>
+      <c r="A49" s="50"/>
       <c r="B49" s="37">
         <v>7</v>
       </c>
@@ -5122,7 +5164,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q49" s="48"/>
+      <c r="Q49" s="50"/>
       <c r="R49" s="37">
         <v>7</v>
       </c>
@@ -5158,7 +5200,7 @@
       </c>
     </row>
     <row r="50" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="46">
+      <c r="A50" s="48">
         <v>6</v>
       </c>
       <c r="B50" s="36">
@@ -5176,7 +5218,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q50" s="46">
+      <c r="Q50" s="48">
         <v>6</v>
       </c>
       <c r="R50" s="36">
@@ -5215,7 +5257,7 @@
       </c>
     </row>
     <row r="51" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="47"/>
+      <c r="A51" s="49"/>
       <c r="B51" s="36">
         <v>1</v>
       </c>
@@ -5243,7 +5285,7 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="Q51" s="47"/>
+      <c r="Q51" s="49"/>
       <c r="R51" s="36">
         <v>1</v>
       </c>
@@ -5267,7 +5309,7 @@
       </c>
     </row>
     <row r="52" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="47"/>
+      <c r="A52" s="49"/>
       <c r="B52" s="36">
         <v>2</v>
       </c>
@@ -5286,7 +5328,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Q52" s="47"/>
+      <c r="Q52" s="49"/>
       <c r="R52" s="36">
         <v>2</v>
       </c>
@@ -5307,7 +5349,7 @@
       </c>
     </row>
     <row r="53" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="47"/>
+      <c r="A53" s="49"/>
       <c r="B53" s="36">
         <v>3</v>
       </c>
@@ -5326,7 +5368,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q53" s="47"/>
+      <c r="Q53" s="49"/>
       <c r="R53" s="36">
         <v>3</v>
       </c>
@@ -5350,7 +5392,7 @@
       </c>
     </row>
     <row r="54" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="47"/>
+      <c r="A54" s="49"/>
       <c r="B54" s="36">
         <v>4</v>
       </c>
@@ -5369,7 +5411,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="Q54" s="47"/>
+      <c r="Q54" s="49"/>
       <c r="R54" s="36">
         <v>4</v>
       </c>
@@ -5390,7 +5432,7 @@
       </c>
     </row>
     <row r="55" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="47"/>
+      <c r="A55" s="49"/>
       <c r="B55" s="36">
         <v>5</v>
       </c>
@@ -5409,7 +5451,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="Q55" s="47"/>
+      <c r="Q55" s="49"/>
       <c r="R55" s="36">
         <v>5</v>
       </c>
@@ -5430,7 +5472,7 @@
       </c>
     </row>
     <row r="56" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="47"/>
+      <c r="A56" s="49"/>
       <c r="B56" s="36">
         <v>6</v>
       </c>
@@ -5449,7 +5491,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="Q56" s="47"/>
+      <c r="Q56" s="49"/>
       <c r="R56" s="36">
         <v>6</v>
       </c>
@@ -5470,7 +5512,7 @@
       </c>
     </row>
     <row r="57" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="48"/>
+      <c r="A57" s="50"/>
       <c r="B57" s="37">
         <v>7</v>
       </c>
@@ -5494,7 +5536,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q57" s="48"/>
+      <c r="Q57" s="50"/>
       <c r="R57" s="37">
         <v>7</v>
       </c>
@@ -5530,7 +5572,7 @@
       </c>
     </row>
     <row r="58" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="46">
+      <c r="A58" s="48">
         <v>7</v>
       </c>
       <c r="B58" s="36">
@@ -5548,7 +5590,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q58" s="46">
+      <c r="Q58" s="48">
         <v>7</v>
       </c>
       <c r="R58" s="36">
@@ -5581,7 +5623,7 @@
       </c>
     </row>
     <row r="59" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="47"/>
+      <c r="A59" s="49"/>
       <c r="B59" s="36">
         <v>1</v>
       </c>
@@ -5603,7 +5645,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="Q59" s="47"/>
+      <c r="Q59" s="49"/>
       <c r="R59" s="36">
         <v>1</v>
       </c>
@@ -5627,7 +5669,7 @@
       </c>
     </row>
     <row r="60" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="47"/>
+      <c r="A60" s="49"/>
       <c r="B60" s="36">
         <v>2</v>
       </c>
@@ -5649,7 +5691,7 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="Q60" s="47"/>
+      <c r="Q60" s="49"/>
       <c r="R60" s="36">
         <v>2</v>
       </c>
@@ -5676,7 +5718,7 @@
       </c>
     </row>
     <row r="61" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="47"/>
+      <c r="A61" s="49"/>
       <c r="B61" s="36">
         <v>3</v>
       </c>
@@ -5698,7 +5740,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="Q61" s="47"/>
+      <c r="Q61" s="49"/>
       <c r="R61" s="36">
         <v>3</v>
       </c>
@@ -5725,7 +5767,7 @@
       </c>
     </row>
     <row r="62" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="47"/>
+      <c r="A62" s="49"/>
       <c r="B62" s="36">
         <v>4</v>
       </c>
@@ -5747,7 +5789,7 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="Q62" s="47"/>
+      <c r="Q62" s="49"/>
       <c r="R62" s="36">
         <v>4</v>
       </c>
@@ -5774,7 +5816,7 @@
       </c>
     </row>
     <row r="63" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="47"/>
+      <c r="A63" s="49"/>
       <c r="B63" s="36">
         <v>5</v>
       </c>
@@ -5796,7 +5838,7 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="Q63" s="47"/>
+      <c r="Q63" s="49"/>
       <c r="R63" s="36">
         <v>5</v>
       </c>
@@ -5820,7 +5862,7 @@
       </c>
     </row>
     <row r="64" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="47"/>
+      <c r="A64" s="49"/>
       <c r="B64" s="36">
         <v>6</v>
       </c>
@@ -5842,7 +5884,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="Q64" s="47"/>
+      <c r="Q64" s="49"/>
       <c r="R64" s="36">
         <v>6</v>
       </c>
@@ -5869,7 +5911,7 @@
       </c>
     </row>
     <row r="65" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="48"/>
+      <c r="A65" s="50"/>
       <c r="B65" s="37">
         <v>7</v>
       </c>
@@ -5893,7 +5935,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q65" s="48"/>
+      <c r="Q65" s="50"/>
       <c r="R65" s="37">
         <v>7</v>
       </c>
@@ -6191,7 +6233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B0B658-2EBB-4F68-A170-FD0A4D0F2FFC}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12:F15"/>
     </sheetView>
   </sheetViews>
@@ -6315,7 +6357,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="51" t="s">
         <v>67</v>
       </c>
       <c r="B6">
@@ -6338,7 +6380,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
+      <c r="A7" s="52"/>
       <c r="B7">
         <v>1.2</v>
       </c>
@@ -6487,4 +6529,153 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C2ADA7-8737-4066-A051-DC50FE14AA88}">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2">
+        <v>36360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3">
+        <v>32244</v>
+      </c>
+      <c r="C3">
+        <f>B2-B3</f>
+        <v>4116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4">
+        <v>30960</v>
+      </c>
+      <c r="C4">
+        <f>B3-B4</f>
+        <v>1284</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5">
+        <v>25488</v>
+      </c>
+      <c r="C5">
+        <f>B4-B5</f>
+        <v>5472</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6">
+        <v>26340</v>
+      </c>
+      <c r="C6">
+        <f>B5-B6</f>
+        <v>-852</v>
+      </c>
+      <c r="E6">
+        <v>24744</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7">
+        <v>19092</v>
+      </c>
+      <c r="C7">
+        <f>B6-B7</f>
+        <v>7248</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8">
+        <v>19668</v>
+      </c>
+      <c r="C8">
+        <f>B7-B8</f>
+        <v>-576</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>19896</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>5000</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <f>E19*D19/1000/60</f>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>12.4</v>
+      </c>
+      <c r="F20">
+        <f>E20*F19</f>
+        <v>10.333333333333334</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/Implementation.xlsx
+++ b/Documents/Implementation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Androvil\Visual Studio 2013\Projects\HomeAutomation\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E43D59-3CF0-4D1A-99C5-F3B570B17A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3277522-0FC9-4D91-AB9F-0FFB6A7929A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15075" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,11 +21,25 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="96">
   <si>
     <t>:</t>
   </si>
@@ -111,19 +125,10 @@
     <t>A</t>
   </si>
   <si>
-    <t>SD card status</t>
-  </si>
-  <si>
     <t>Water North/South (litres)</t>
   </si>
   <si>
     <t>W</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>Pump status</t>
   </si>
   <si>
     <t>4х1.5</t>
@@ -389,6 +394,36 @@
   </si>
   <si>
     <t>Final</t>
+  </si>
+  <si>
+    <t>E/D</t>
+  </si>
+  <si>
+    <t>Relay Id</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -661,7 +696,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -768,6 +803,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="15" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -782,12 +830,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1475,10 +1517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:Y31"/>
+  <dimension ref="A4:AV38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S37" sqref="S37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AY24" sqref="AY24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1960,7 +2002,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>22</v>
       </c>
@@ -1968,33 +2010,41 @@
         <v>0</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="53">
-        <v>2</v>
-      </c>
-      <c r="H17" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="53">
-        <v>3</v>
-      </c>
-      <c r="J17" s="53">
-        <v>4</v>
-      </c>
-      <c r="K17" s="53"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="L17" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7">
         <v>0</v>
@@ -2012,7 +2062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>23</v>
       </c>
@@ -2028,47 +2078,52 @@
       <c r="F18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="54">
-        <v>1</v>
-      </c>
-      <c r="H18" s="54">
-        <v>0</v>
-      </c>
-      <c r="I18" s="54" t="s">
+      <c r="G18" s="49">
+        <v>1</v>
+      </c>
+      <c r="H18" s="49">
+        <v>0</v>
+      </c>
+      <c r="I18" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="54">
+      <c r="J18" s="49">
         <v>2</v>
       </c>
-      <c r="K18" s="54"/>
-      <c r="S18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="W18" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y18" t="s">
+      <c r="K18" s="49"/>
+      <c r="L18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O18" s="49">
+        <v>2</v>
+      </c>
+      <c r="P18" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="49">
+        <v>3</v>
+      </c>
+      <c r="R18" s="49">
+        <v>4</v>
+      </c>
+      <c r="S18" s="49"/>
+      <c r="W18" s="11"/>
+    </row>
+    <row r="19" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
-        <v>29</v>
       </c>
       <c r="C19" s="9">
         <v>2</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>25</v>
@@ -2076,19 +2131,19 @@
       <c r="F19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G19" s="54">
-        <v>1</v>
-      </c>
-      <c r="H19" s="54">
+      <c r="G19" s="49">
+        <v>1</v>
+      </c>
+      <c r="H19" s="49">
         <v>2</v>
       </c>
-      <c r="I19" s="54">
+      <c r="I19" s="49">
         <v>3</v>
       </c>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
       <c r="L19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>19</v>
@@ -2096,38 +2151,21 @@
       <c r="N19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O19" s="54">
-        <v>1</v>
-      </c>
-      <c r="P19" s="54">
+      <c r="O19" s="49">
+        <v>1</v>
+      </c>
+      <c r="P19" s="49">
         <v>2</v>
       </c>
-      <c r="Q19" s="54">
+      <c r="Q19" s="49">
         <v>3</v>
       </c>
-      <c r="R19" s="54"/>
-      <c r="S19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="W19" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="R19" s="49"/>
+      <c r="W19" s="11"/>
+    </row>
+    <row r="20" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A20" s="29" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C20" s="12">
         <v>3</v>
@@ -2145,7 +2183,7 @@
         <v>7</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I20" s="14" t="s">
         <v>0</v>
@@ -2170,7 +2208,7 @@
         <v>7</v>
       </c>
       <c r="Q20" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R20" s="14" t="s">
         <v>0</v>
@@ -2191,10 +2229,10 @@
         <v>4</v>
       </c>
       <c r="Y20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:48" x14ac:dyDescent="0.2">
       <c r="D24" s="2">
         <v>0</v>
       </c>
@@ -2256,7 +2294,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A25" s="29" t="s">
         <v>22</v>
       </c>
@@ -2264,30 +2302,38 @@
         <v>0</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" s="7">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>0</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="7">
-        <v>3</v>
-      </c>
-      <c r="J25" s="7">
-        <v>4</v>
-      </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
@@ -2307,8 +2353,19 @@
       <c r="W25" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="1"/>
+      <c r="AO25" s="1"/>
+      <c r="AP25" s="1"/>
+      <c r="AQ25" s="1"/>
+      <c r="AR25" s="1"/>
+      <c r="AS25" s="51"/>
+      <c r="AT25" s="51"/>
+      <c r="AU25" s="51"/>
+      <c r="AV25" s="51"/>
+    </row>
+    <row r="26" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A26" s="29" t="s">
         <v>23</v>
       </c>
@@ -2336,34 +2393,38 @@
       <c r="J26" s="1">
         <v>2</v>
       </c>
-      <c r="S26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="W26" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y26" t="s">
+      <c r="L26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>2</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>3</v>
+      </c>
+      <c r="R26" s="1">
+        <v>4</v>
+      </c>
+      <c r="W26" s="11"/>
+    </row>
+    <row r="27" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A27" s="29" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A27" s="29" t="s">
-        <v>29</v>
       </c>
       <c r="C27" s="9">
         <v>2</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>25</v>
@@ -2381,7 +2442,7 @@
         <v>3</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>19</v>
@@ -2398,28 +2459,11 @@
       <c r="Q27" s="1">
         <v>3</v>
       </c>
-      <c r="S27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="W27" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="W27" s="11"/>
+    </row>
+    <row r="28" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A28" s="29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C28" s="12">
         <v>3</v>
@@ -2428,7 +2472,7 @@
         <v>25</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F28" s="14" t="s">
         <v>0</v>
@@ -2459,7 +2503,7 @@
         <v>19</v>
       </c>
       <c r="P28" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Q28" s="14" t="s">
         <v>0</v>
@@ -2481,14 +2525,287 @@
       </c>
       <c r="W28" s="15"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.2">
       <c r="R30" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:48" x14ac:dyDescent="0.2">
       <c r="R31" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="G33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>2</v>
+      </c>
+      <c r="G34" s="3">
+        <v>3</v>
+      </c>
+      <c r="H34" s="3">
+        <v>4</v>
+      </c>
+      <c r="I34" s="3">
+        <v>5</v>
+      </c>
+      <c r="J34" s="3">
+        <v>6</v>
+      </c>
+      <c r="K34" s="3">
+        <v>7</v>
+      </c>
+      <c r="L34" s="3">
+        <v>8</v>
+      </c>
+      <c r="M34" s="3">
+        <v>9</v>
+      </c>
+      <c r="N34" s="3">
+        <v>10</v>
+      </c>
+      <c r="O34" s="3">
+        <v>11</v>
+      </c>
+      <c r="P34" s="3">
+        <v>12</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>13</v>
+      </c>
+      <c r="R34" s="3">
+        <v>14</v>
+      </c>
+      <c r="S34" s="3">
+        <v>15</v>
+      </c>
+      <c r="T34" s="3">
+        <v>16</v>
+      </c>
+      <c r="U34" s="3">
+        <v>17</v>
+      </c>
+      <c r="V34" s="3">
+        <v>18</v>
+      </c>
+      <c r="W34" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C35" s="5">
+        <v>0</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I35" s="7">
+        <v>1</v>
+      </c>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>2</v>
+      </c>
+      <c r="R35" s="7">
+        <v>2</v>
+      </c>
+      <c r="S35" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="T35" s="7">
+        <v>0</v>
+      </c>
+      <c r="U35" s="7">
+        <v>0</v>
+      </c>
+      <c r="V35" s="7"/>
+      <c r="W35" s="8"/>
+    </row>
+    <row r="36" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C36" s="9">
+        <v>1</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>6</v>
+      </c>
+      <c r="R36" s="1">
+        <v>5</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="W36" s="11"/>
+    </row>
+    <row r="37" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C37" s="9">
+        <v>2</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>2</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W37" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C38" s="12">
+        <v>3</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="M38" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="O38" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P38" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="14">
+        <v>1</v>
+      </c>
+      <c r="R38" s="14">
+        <v>0</v>
+      </c>
+      <c r="S38" s="14">
+        <v>1</v>
+      </c>
+      <c r="T38" s="14">
+        <v>0</v>
+      </c>
+      <c r="U38" s="14">
+        <v>1</v>
+      </c>
+      <c r="V38" s="14">
+        <v>0</v>
+      </c>
+      <c r="W38" s="15">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2523,10 +2840,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>2.2599999999999998</v>
@@ -2539,12 +2856,12 @@
         <v>225.99999999999997</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>35.07</v>
@@ -2557,29 +2874,29 @@
         <v>175.35</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L11" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="O11" s="22" t="s">
         <v>74</v>
-      </c>
-      <c r="M11" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="N11" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="O11" s="22" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <f>SUM(B13:B23)</f>
@@ -2587,7 +2904,7 @@
       </c>
       <c r="D12" s="23"/>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I12">
         <v>0.09</v>
@@ -2608,13 +2925,13 @@
     </row>
     <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I13">
         <v>0.03</v>
@@ -2635,13 +2952,13 @@
     </row>
     <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I14">
         <v>0.04</v>
@@ -2662,13 +2979,13 @@
     </row>
     <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I15">
         <v>0.06</v>
@@ -2689,7 +3006,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2698,7 +3015,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2706,7 +3023,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2840,7 +3157,7 @@
       </c>
     </row>
     <row r="2" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48">
+      <c r="A2" s="53">
         <v>0</v>
       </c>
       <c r="B2" s="36">
@@ -2858,7 +3175,7 @@
         <f>BIN2DEC(L2)</f>
         <v>0</v>
       </c>
-      <c r="Q2" s="48">
+      <c r="Q2" s="53">
         <v>0</v>
       </c>
       <c r="R2" s="36">
@@ -2892,7 +3209,7 @@
       </c>
     </row>
     <row r="3" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="36">
         <v>1</v>
       </c>
@@ -2911,7 +3228,7 @@
         <f t="shared" ref="M3:M65" si="2">BIN2DEC(L3)</f>
         <v>4</v>
       </c>
-      <c r="Q3" s="49"/>
+      <c r="Q3" s="54"/>
       <c r="R3" s="36">
         <v>1</v>
       </c>
@@ -2942,7 +3259,7 @@
       </c>
     </row>
     <row r="4" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="36">
         <v>2</v>
       </c>
@@ -2964,7 +3281,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="Q4" s="49"/>
+      <c r="Q4" s="54"/>
       <c r="R4" s="36">
         <v>2</v>
       </c>
@@ -2992,7 +3309,7 @@
       </c>
     </row>
     <row r="5" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="36">
         <v>3</v>
       </c>
@@ -3011,7 +3328,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q5" s="49"/>
+      <c r="Q5" s="54"/>
       <c r="R5" s="36">
         <v>3</v>
       </c>
@@ -3042,7 +3359,7 @@
       </c>
     </row>
     <row r="6" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="36">
         <v>4</v>
       </c>
@@ -3061,7 +3378,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q6" s="49"/>
+      <c r="Q6" s="54"/>
       <c r="R6" s="36">
         <v>4</v>
       </c>
@@ -3089,7 +3406,7 @@
       </c>
     </row>
     <row r="7" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="36">
         <v>5</v>
       </c>
@@ -3108,7 +3425,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q7" s="49"/>
+      <c r="Q7" s="54"/>
       <c r="R7" s="36">
         <v>5</v>
       </c>
@@ -3136,7 +3453,7 @@
       </c>
     </row>
     <row r="8" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="36">
         <v>6</v>
       </c>
@@ -3161,7 +3478,7 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="Q8" s="49"/>
+      <c r="Q8" s="54"/>
       <c r="R8" s="36">
         <v>6</v>
       </c>
@@ -3195,7 +3512,7 @@
       </c>
     </row>
     <row r="9" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="37">
         <v>7</v>
       </c>
@@ -3219,7 +3536,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="50"/>
+      <c r="Q9" s="55"/>
       <c r="R9" s="37">
         <v>7</v>
       </c>
@@ -3262,7 +3579,7 @@
       </c>
     </row>
     <row r="10" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="48">
+      <c r="A10" s="53">
         <v>1</v>
       </c>
       <c r="B10" s="36">
@@ -3280,7 +3597,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="48">
+      <c r="Q10" s="53">
         <v>1</v>
       </c>
       <c r="R10" s="36">
@@ -3313,7 +3630,7 @@
       </c>
     </row>
     <row r="11" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="36">
         <v>1</v>
       </c>
@@ -3335,7 +3652,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="Q11" s="49"/>
+      <c r="Q11" s="54"/>
       <c r="R11" s="36">
         <v>1</v>
       </c>
@@ -3359,7 +3676,7 @@
       </c>
     </row>
     <row r="12" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="36">
         <v>2</v>
       </c>
@@ -3381,7 +3698,7 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="Q12" s="49"/>
+      <c r="Q12" s="54"/>
       <c r="R12" s="36">
         <v>2</v>
       </c>
@@ -3402,7 +3719,7 @@
       </c>
     </row>
     <row r="13" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="36">
         <v>3</v>
       </c>
@@ -3421,7 +3738,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Q13" s="49"/>
+      <c r="Q13" s="54"/>
       <c r="R13" s="36">
         <v>3</v>
       </c>
@@ -3442,7 +3759,7 @@
       </c>
     </row>
     <row r="14" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="36">
         <v>4</v>
       </c>
@@ -3461,7 +3778,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q14" s="49"/>
+      <c r="Q14" s="54"/>
       <c r="R14" s="36">
         <v>4</v>
       </c>
@@ -3482,7 +3799,7 @@
       </c>
     </row>
     <row r="15" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="36">
         <v>5</v>
       </c>
@@ -3501,7 +3818,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="Q15" s="49"/>
+      <c r="Q15" s="54"/>
       <c r="R15" s="36">
         <v>5</v>
       </c>
@@ -3522,7 +3839,7 @@
       </c>
     </row>
     <row r="16" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="36">
         <v>6</v>
       </c>
@@ -3550,7 +3867,7 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="Q16" s="49"/>
+      <c r="Q16" s="54"/>
       <c r="R16" s="36">
         <v>6</v>
       </c>
@@ -3583,7 +3900,7 @@
       </c>
     </row>
     <row r="17" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="37">
         <v>7</v>
       </c>
@@ -3607,7 +3924,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="50"/>
+      <c r="Q17" s="55"/>
       <c r="R17" s="37">
         <v>7</v>
       </c>
@@ -3643,7 +3960,7 @@
       </c>
     </row>
     <row r="18" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="48">
+      <c r="A18" s="53">
         <v>2</v>
       </c>
       <c r="B18" s="36">
@@ -3661,7 +3978,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="48">
+      <c r="Q18" s="53">
         <v>2</v>
       </c>
       <c r="R18" s="36">
@@ -3700,7 +4017,7 @@
       </c>
     </row>
     <row r="19" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="36">
         <v>1</v>
       </c>
@@ -3728,7 +4045,7 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="Q19" s="49"/>
+      <c r="Q19" s="54"/>
       <c r="R19" s="36">
         <v>1</v>
       </c>
@@ -3749,7 +4066,7 @@
       </c>
     </row>
     <row r="20" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="36">
         <v>2</v>
       </c>
@@ -3768,7 +4085,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q20" s="49"/>
+      <c r="Q20" s="54"/>
       <c r="R20" s="36">
         <v>2</v>
       </c>
@@ -3792,7 +4109,7 @@
       </c>
     </row>
     <row r="21" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="36">
         <v>3</v>
       </c>
@@ -3811,7 +4128,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="Q21" s="49"/>
+      <c r="Q21" s="54"/>
       <c r="R21" s="36">
         <v>3</v>
       </c>
@@ -3832,7 +4149,7 @@
       </c>
     </row>
     <row r="22" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="36">
         <v>4</v>
       </c>
@@ -3851,7 +4168,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q22" s="49"/>
+      <c r="Q22" s="54"/>
       <c r="R22" s="36">
         <v>4</v>
       </c>
@@ -3872,7 +4189,7 @@
       </c>
     </row>
     <row r="23" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="36">
         <v>5</v>
       </c>
@@ -3894,7 +4211,7 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="Q23" s="49"/>
+      <c r="Q23" s="54"/>
       <c r="R23" s="36">
         <v>5</v>
       </c>
@@ -3918,7 +4235,7 @@
       </c>
     </row>
     <row r="24" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="36">
         <v>6</v>
       </c>
@@ -3940,7 +4257,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="Q24" s="49"/>
+      <c r="Q24" s="54"/>
       <c r="R24" s="36">
         <v>6</v>
       </c>
@@ -3967,7 +4284,7 @@
       </c>
     </row>
     <row r="25" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="37">
         <v>7</v>
       </c>
@@ -3991,7 +4308,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="50"/>
+      <c r="Q25" s="55"/>
       <c r="R25" s="37">
         <v>7</v>
       </c>
@@ -4027,7 +4344,7 @@
       </c>
     </row>
     <row r="26" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="48">
+      <c r="A26" s="53">
         <v>3</v>
       </c>
       <c r="B26" s="36">
@@ -4045,7 +4362,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="48">
+      <c r="Q26" s="53">
         <v>3</v>
       </c>
       <c r="R26" s="36">
@@ -4075,7 +4392,7 @@
       </c>
     </row>
     <row r="27" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="36">
         <v>1</v>
       </c>
@@ -4094,7 +4411,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q27" s="49"/>
+      <c r="Q27" s="54"/>
       <c r="R27" s="36">
         <v>1</v>
       </c>
@@ -4118,7 +4435,7 @@
       </c>
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="36">
         <v>2</v>
       </c>
@@ -4140,7 +4457,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="Q28" s="49"/>
+      <c r="Q28" s="54"/>
       <c r="R28" s="36">
         <v>2</v>
       </c>
@@ -4164,7 +4481,7 @@
       </c>
     </row>
     <row r="29" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="36">
         <v>3</v>
       </c>
@@ -4186,7 +4503,7 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="Q29" s="49"/>
+      <c r="Q29" s="54"/>
       <c r="R29" s="36">
         <v>3</v>
       </c>
@@ -4210,7 +4527,7 @@
       </c>
     </row>
     <row r="30" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
+      <c r="A30" s="54"/>
       <c r="B30" s="36">
         <v>4</v>
       </c>
@@ -4238,7 +4555,7 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="Q30" s="49"/>
+      <c r="Q30" s="54"/>
       <c r="R30" s="36">
         <v>4</v>
       </c>
@@ -4271,7 +4588,7 @@
       </c>
     </row>
     <row r="31" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="36">
         <v>5</v>
       </c>
@@ -4290,7 +4607,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q31" s="49"/>
+      <c r="Q31" s="54"/>
       <c r="R31" s="36">
         <v>5</v>
       </c>
@@ -4311,7 +4628,7 @@
       </c>
     </row>
     <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="36">
         <v>6</v>
       </c>
@@ -4330,7 +4647,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q32" s="49"/>
+      <c r="Q32" s="54"/>
       <c r="R32" s="36">
         <v>6</v>
       </c>
@@ -4351,7 +4668,7 @@
       </c>
     </row>
     <row r="33" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="50"/>
+      <c r="A33" s="55"/>
       <c r="B33" s="37">
         <v>7</v>
       </c>
@@ -4375,7 +4692,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="50"/>
+      <c r="Q33" s="55"/>
       <c r="R33" s="37">
         <v>7</v>
       </c>
@@ -4411,7 +4728,7 @@
       </c>
     </row>
     <row r="34" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="48">
+      <c r="A34" s="53">
         <v>4</v>
       </c>
       <c r="B34" s="36">
@@ -4429,7 +4746,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q34" s="48">
+      <c r="Q34" s="53">
         <v>4</v>
       </c>
       <c r="R34" s="36">
@@ -4468,7 +4785,7 @@
       </c>
     </row>
     <row r="35" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="36">
         <v>1</v>
       </c>
@@ -4496,7 +4813,7 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="Q35" s="49"/>
+      <c r="Q35" s="54"/>
       <c r="R35" s="36">
         <v>1</v>
       </c>
@@ -4517,7 +4834,7 @@
       </c>
     </row>
     <row r="36" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
+      <c r="A36" s="54"/>
       <c r="B36" s="36">
         <v>2</v>
       </c>
@@ -4536,7 +4853,7 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="Q36" s="49"/>
+      <c r="Q36" s="54"/>
       <c r="R36" s="36">
         <v>2</v>
       </c>
@@ -4566,7 +4883,7 @@
       </c>
     </row>
     <row r="37" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
+      <c r="A37" s="54"/>
       <c r="B37" s="36">
         <v>3</v>
       </c>
@@ -4591,7 +4908,7 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="Q37" s="49"/>
+      <c r="Q37" s="54"/>
       <c r="R37" s="36">
         <v>3</v>
       </c>
@@ -4612,7 +4929,7 @@
       </c>
     </row>
     <row r="38" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
+      <c r="A38" s="54"/>
       <c r="B38" s="36">
         <v>4</v>
       </c>
@@ -4631,7 +4948,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Q38" s="49"/>
+      <c r="Q38" s="54"/>
       <c r="R38" s="36">
         <v>4</v>
       </c>
@@ -4655,7 +4972,7 @@
       </c>
     </row>
     <row r="39" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
+      <c r="A39" s="54"/>
       <c r="B39" s="36">
         <v>5</v>
       </c>
@@ -4677,7 +4994,7 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="Q39" s="49"/>
+      <c r="Q39" s="54"/>
       <c r="R39" s="36">
         <v>5</v>
       </c>
@@ -4701,7 +5018,7 @@
       </c>
     </row>
     <row r="40" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
+      <c r="A40" s="54"/>
       <c r="B40" s="36">
         <v>6</v>
       </c>
@@ -4723,7 +5040,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="Q40" s="49"/>
+      <c r="Q40" s="54"/>
       <c r="R40" s="36">
         <v>6</v>
       </c>
@@ -4750,7 +5067,7 @@
       </c>
     </row>
     <row r="41" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="50"/>
+      <c r="A41" s="55"/>
       <c r="B41" s="37">
         <v>7</v>
       </c>
@@ -4774,7 +5091,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q41" s="50"/>
+      <c r="Q41" s="55"/>
       <c r="R41" s="37">
         <v>7</v>
       </c>
@@ -4810,7 +5127,7 @@
       </c>
     </row>
     <row r="42" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="48">
+      <c r="A42" s="53">
         <v>5</v>
       </c>
       <c r="B42" s="36">
@@ -4828,7 +5145,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q42" s="48">
+      <c r="Q42" s="53">
         <v>5</v>
       </c>
       <c r="R42" s="36">
@@ -4858,7 +5175,7 @@
       </c>
     </row>
     <row r="43" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
+      <c r="A43" s="54"/>
       <c r="B43" s="36">
         <v>1</v>
       </c>
@@ -4880,7 +5197,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="Q43" s="49"/>
+      <c r="Q43" s="54"/>
       <c r="R43" s="36">
         <v>1</v>
       </c>
@@ -4901,7 +5218,7 @@
       </c>
     </row>
     <row r="44" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
+      <c r="A44" s="54"/>
       <c r="B44" s="36">
         <v>2</v>
       </c>
@@ -4920,7 +5237,7 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="Q44" s="49"/>
+      <c r="Q44" s="54"/>
       <c r="R44" s="36">
         <v>2</v>
       </c>
@@ -4944,7 +5261,7 @@
       </c>
     </row>
     <row r="45" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
+      <c r="A45" s="54"/>
       <c r="B45" s="36">
         <v>3</v>
       </c>
@@ -4969,7 +5286,7 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="Q45" s="49"/>
+      <c r="Q45" s="54"/>
       <c r="R45" s="36">
         <v>3</v>
       </c>
@@ -4999,7 +5316,7 @@
       </c>
     </row>
     <row r="46" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
+      <c r="A46" s="54"/>
       <c r="B46" s="36">
         <v>4</v>
       </c>
@@ -5021,7 +5338,7 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="Q46" s="49"/>
+      <c r="Q46" s="54"/>
       <c r="R46" s="36">
         <v>4</v>
       </c>
@@ -5045,7 +5362,7 @@
       </c>
     </row>
     <row r="47" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
+      <c r="A47" s="54"/>
       <c r="B47" s="36">
         <v>5</v>
       </c>
@@ -5067,7 +5384,7 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="Q47" s="49"/>
+      <c r="Q47" s="54"/>
       <c r="R47" s="36">
         <v>5</v>
       </c>
@@ -5091,7 +5408,7 @@
       </c>
     </row>
     <row r="48" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="49"/>
+      <c r="A48" s="54"/>
       <c r="B48" s="36">
         <v>6</v>
       </c>
@@ -5113,7 +5430,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="Q48" s="49"/>
+      <c r="Q48" s="54"/>
       <c r="R48" s="36">
         <v>6</v>
       </c>
@@ -5140,7 +5457,7 @@
       </c>
     </row>
     <row r="49" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="50"/>
+      <c r="A49" s="55"/>
       <c r="B49" s="37">
         <v>7</v>
       </c>
@@ -5164,7 +5481,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q49" s="50"/>
+      <c r="Q49" s="55"/>
       <c r="R49" s="37">
         <v>7</v>
       </c>
@@ -5200,7 +5517,7 @@
       </c>
     </row>
     <row r="50" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="48">
+      <c r="A50" s="53">
         <v>6</v>
       </c>
       <c r="B50" s="36">
@@ -5218,7 +5535,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q50" s="48">
+      <c r="Q50" s="53">
         <v>6</v>
       </c>
       <c r="R50" s="36">
@@ -5257,7 +5574,7 @@
       </c>
     </row>
     <row r="51" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="49"/>
+      <c r="A51" s="54"/>
       <c r="B51" s="36">
         <v>1</v>
       </c>
@@ -5285,7 +5602,7 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="Q51" s="49"/>
+      <c r="Q51" s="54"/>
       <c r="R51" s="36">
         <v>1</v>
       </c>
@@ -5309,7 +5626,7 @@
       </c>
     </row>
     <row r="52" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="49"/>
+      <c r="A52" s="54"/>
       <c r="B52" s="36">
         <v>2</v>
       </c>
@@ -5328,7 +5645,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Q52" s="49"/>
+      <c r="Q52" s="54"/>
       <c r="R52" s="36">
         <v>2</v>
       </c>
@@ -5349,7 +5666,7 @@
       </c>
     </row>
     <row r="53" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="49"/>
+      <c r="A53" s="54"/>
       <c r="B53" s="36">
         <v>3</v>
       </c>
@@ -5368,7 +5685,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Q53" s="49"/>
+      <c r="Q53" s="54"/>
       <c r="R53" s="36">
         <v>3</v>
       </c>
@@ -5392,7 +5709,7 @@
       </c>
     </row>
     <row r="54" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="49"/>
+      <c r="A54" s="54"/>
       <c r="B54" s="36">
         <v>4</v>
       </c>
@@ -5411,7 +5728,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="Q54" s="49"/>
+      <c r="Q54" s="54"/>
       <c r="R54" s="36">
         <v>4</v>
       </c>
@@ -5432,7 +5749,7 @@
       </c>
     </row>
     <row r="55" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="49"/>
+      <c r="A55" s="54"/>
       <c r="B55" s="36">
         <v>5</v>
       </c>
@@ -5451,7 +5768,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="Q55" s="49"/>
+      <c r="Q55" s="54"/>
       <c r="R55" s="36">
         <v>5</v>
       </c>
@@ -5472,7 +5789,7 @@
       </c>
     </row>
     <row r="56" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="49"/>
+      <c r="A56" s="54"/>
       <c r="B56" s="36">
         <v>6</v>
       </c>
@@ -5491,7 +5808,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="Q56" s="49"/>
+      <c r="Q56" s="54"/>
       <c r="R56" s="36">
         <v>6</v>
       </c>
@@ -5512,7 +5829,7 @@
       </c>
     </row>
     <row r="57" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="50"/>
+      <c r="A57" s="55"/>
       <c r="B57" s="37">
         <v>7</v>
       </c>
@@ -5536,7 +5853,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q57" s="50"/>
+      <c r="Q57" s="55"/>
       <c r="R57" s="37">
         <v>7</v>
       </c>
@@ -5572,7 +5889,7 @@
       </c>
     </row>
     <row r="58" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="48">
+      <c r="A58" s="53">
         <v>7</v>
       </c>
       <c r="B58" s="36">
@@ -5590,7 +5907,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q58" s="48">
+      <c r="Q58" s="53">
         <v>7</v>
       </c>
       <c r="R58" s="36">
@@ -5623,7 +5940,7 @@
       </c>
     </row>
     <row r="59" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="49"/>
+      <c r="A59" s="54"/>
       <c r="B59" s="36">
         <v>1</v>
       </c>
@@ -5645,7 +5962,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="Q59" s="49"/>
+      <c r="Q59" s="54"/>
       <c r="R59" s="36">
         <v>1</v>
       </c>
@@ -5669,7 +5986,7 @@
       </c>
     </row>
     <row r="60" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="49"/>
+      <c r="A60" s="54"/>
       <c r="B60" s="36">
         <v>2</v>
       </c>
@@ -5691,7 +6008,7 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="Q60" s="49"/>
+      <c r="Q60" s="54"/>
       <c r="R60" s="36">
         <v>2</v>
       </c>
@@ -5718,7 +6035,7 @@
       </c>
     </row>
     <row r="61" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="49"/>
+      <c r="A61" s="54"/>
       <c r="B61" s="36">
         <v>3</v>
       </c>
@@ -5740,7 +6057,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="Q61" s="49"/>
+      <c r="Q61" s="54"/>
       <c r="R61" s="36">
         <v>3</v>
       </c>
@@ -5767,7 +6084,7 @@
       </c>
     </row>
     <row r="62" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="49"/>
+      <c r="A62" s="54"/>
       <c r="B62" s="36">
         <v>4</v>
       </c>
@@ -5789,7 +6106,7 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="Q62" s="49"/>
+      <c r="Q62" s="54"/>
       <c r="R62" s="36">
         <v>4</v>
       </c>
@@ -5816,7 +6133,7 @@
       </c>
     </row>
     <row r="63" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="49"/>
+      <c r="A63" s="54"/>
       <c r="B63" s="36">
         <v>5</v>
       </c>
@@ -5838,7 +6155,7 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="Q63" s="49"/>
+      <c r="Q63" s="54"/>
       <c r="R63" s="36">
         <v>5</v>
       </c>
@@ -5862,7 +6179,7 @@
       </c>
     </row>
     <row r="64" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="49"/>
+      <c r="A64" s="54"/>
       <c r="B64" s="36">
         <v>6</v>
       </c>
@@ -5884,7 +6201,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="Q64" s="49"/>
+      <c r="Q64" s="54"/>
       <c r="R64" s="36">
         <v>6</v>
       </c>
@@ -5911,7 +6228,7 @@
       </c>
     </row>
     <row r="65" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="50"/>
+      <c r="A65" s="55"/>
       <c r="B65" s="37">
         <v>7</v>
       </c>
@@ -5935,7 +6252,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q65" s="50"/>
+      <c r="Q65" s="55"/>
       <c r="R65" s="37">
         <v>7</v>
       </c>
@@ -6016,10 +6333,10 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
         <v>20</v>
@@ -6052,7 +6369,7 @@
         <v>27</v>
       </c>
       <c r="O1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -6095,7 +6412,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -6249,47 +6566,47 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B1" s="43">
         <v>330</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E1" s="45">
         <v>5</v>
       </c>
       <c r="F1" s="44" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B2" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="40" t="s">
         <v>62</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B3">
         <v>3.16</v>
@@ -6312,7 +6629,7 @@
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B4">
         <v>2.0299999999999998</v>
@@ -6335,7 +6652,7 @@
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B5">
         <v>2.0699999999999998</v>
@@ -6357,8 +6674,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
-        <v>67</v>
+      <c r="A6" s="56" t="s">
+        <v>64</v>
       </c>
       <c r="B6">
         <v>2.2000000000000002</v>
@@ -6380,7 +6697,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
+      <c r="A7" s="57"/>
       <c r="B7">
         <v>1.2</v>
       </c>
@@ -6402,7 +6719,7 @@
     </row>
     <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -6547,18 +6864,18 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" t="s">
-        <v>83</v>
-      </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B2">
         <v>36360</v>
@@ -6566,25 +6883,25 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B3">
         <v>32244</v>
       </c>
       <c r="C3">
-        <f>B2-B3</f>
+        <f t="shared" ref="C3:C8" si="0">B2-B3</f>
         <v>4116</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B4">
         <v>30960</v>
       </c>
       <c r="C4">
-        <f>B3-B4</f>
+        <f t="shared" si="0"/>
         <v>1284</v>
       </c>
       <c r="D4">
@@ -6593,13 +6910,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B5">
         <v>25488</v>
       </c>
       <c r="C5">
-        <f>B4-B5</f>
+        <f t="shared" si="0"/>
         <v>5472</v>
       </c>
       <c r="D5">
@@ -6608,13 +6925,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B6">
         <v>26340</v>
       </c>
       <c r="C6">
-        <f>B5-B6</f>
+        <f t="shared" si="0"/>
         <v>-852</v>
       </c>
       <c r="E6">
@@ -6623,13 +6940,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B7">
         <v>19092</v>
       </c>
       <c r="C7">
-        <f>B6-B7</f>
+        <f t="shared" si="0"/>
         <v>7248</v>
       </c>
       <c r="D7">
@@ -6638,13 +6955,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B8">
         <v>19668</v>
       </c>
       <c r="C8">
-        <f>B7-B8</f>
+        <f t="shared" si="0"/>
         <v>-576</v>
       </c>
       <c r="D8">
